--- a/T2F_MATLAB/TestesConstrutivoReais/Dados_SemFuse.xlsx
+++ b/T2F_MATLAB/TestesConstrutivoReais/Dados_SemFuse.xlsx
@@ -7,9 +7,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Fim Linha" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Meio Linha 1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Meio Linha 2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Fim Linha Sem Fuse" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Meio Linha 1 Sem Fuse" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Meio Linha 2 Sem Fuse" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -506,7 +506,7 @@
         <v>1e-05</v>
       </c>
       <c r="E2" t="n">
-        <v>1e-05</v>
+        <v>40</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -518,13 +518,13 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>22.5701</v>
+        <v>40.2547</v>
       </c>
       <c r="J2" t="n">
-        <v>5.97719</v>
+        <v>9.5175</v>
       </c>
       <c r="K2" t="n">
-        <v>16.5929</v>
+        <v>30.7372</v>
       </c>
     </row>
     <row r="3">
@@ -541,7 +541,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>1e-05</v>
+        <v>40</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -553,13 +553,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>18.629</v>
+        <v>31.4679</v>
       </c>
       <c r="J3" t="n">
-        <v>1.40135</v>
+        <v>3.70241</v>
       </c>
       <c r="K3" t="n">
-        <v>20.0303</v>
+        <v>35.1703</v>
       </c>
     </row>
     <row r="4">
@@ -576,7 +576,7 @@
         <v>1e-05</v>
       </c>
       <c r="E4" t="n">
-        <v>1e-05</v>
+        <v>40</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -588,13 +588,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0.37527</v>
+        <v>0.641101</v>
       </c>
       <c r="J4" t="n">
-        <v>5.2258</v>
+        <v>11.8317</v>
       </c>
       <c r="K4" t="n">
-        <v>5.6011</v>
+        <v>12.4728</v>
       </c>
     </row>
     <row r="5">
@@ -623,13 +623,13 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>15.5433</v>
+        <v>27.0851</v>
       </c>
       <c r="J5" t="n">
-        <v>13.0039</v>
+        <v>22.6871</v>
       </c>
       <c r="K5" t="n">
-        <v>2.53943</v>
+        <v>4.398</v>
       </c>
     </row>
     <row r="6">
@@ -658,13 +658,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0.94886</v>
+        <v>0.64472</v>
       </c>
       <c r="J6" t="n">
-        <v>1.4197</v>
+        <v>3.7533</v>
       </c>
       <c r="K6" t="n">
-        <v>2.3686</v>
+        <v>4.398</v>
       </c>
     </row>
     <row r="7">
@@ -690,16 +690,16 @@
         <v>1e-05</v>
       </c>
       <c r="H7" t="n">
-        <v>1e-05</v>
+        <v>40</v>
       </c>
       <c r="I7" t="n">
-        <v>18.6107</v>
+        <v>40.1325</v>
       </c>
       <c r="J7" t="n">
-        <v>1.40137</v>
+        <v>9.42883</v>
       </c>
       <c r="K7" t="n">
-        <v>20.012</v>
+        <v>30.7037</v>
       </c>
     </row>
     <row r="8">
@@ -725,16 +725,16 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>1e-05</v>
+        <v>40</v>
       </c>
       <c r="I8" t="n">
-        <v>18.6043</v>
+        <v>31.4189</v>
       </c>
       <c r="J8" t="n">
-        <v>1.40137</v>
+        <v>3.70372</v>
       </c>
       <c r="K8" t="n">
-        <v>20.0057</v>
+        <v>35.1226</v>
       </c>
     </row>
     <row r="9">
@@ -760,16 +760,16 @@
         <v>1e-05</v>
       </c>
       <c r="H9" t="n">
-        <v>1e-05</v>
+        <v>40</v>
       </c>
       <c r="I9" t="n">
-        <v>18.6043</v>
+        <v>0.641353</v>
       </c>
       <c r="J9" t="n">
-        <v>1.40137</v>
+        <v>11.8413</v>
       </c>
       <c r="K9" t="n">
-        <v>20.0057</v>
+        <v>12.4826</v>
       </c>
     </row>
     <row r="10">
@@ -798,13 +798,13 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0.94886</v>
+        <v>26.9797</v>
       </c>
       <c r="J10" t="n">
-        <v>1.4197</v>
+        <v>22.5817</v>
       </c>
       <c r="K10" t="n">
-        <v>2.3686</v>
+        <v>4.398</v>
       </c>
     </row>
     <row r="11">
@@ -833,13 +833,13 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.94886</v>
+        <v>0.64472</v>
       </c>
       <c r="J11" t="n">
-        <v>1.4197</v>
+        <v>3.7533</v>
       </c>
       <c r="K11" t="n">
-        <v>2.3686</v>
+        <v>4.398</v>
       </c>
     </row>
   </sheetData>
@@ -940,7 +940,7 @@
         <v>1e-05</v>
       </c>
       <c r="F2" t="n">
-        <v>1e-05</v>
+        <v>40</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -952,13 +952,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>22.6906</v>
+        <v>40.1844</v>
       </c>
       <c r="K2" t="n">
-        <v>6.0733</v>
+        <v>9.636150000000001</v>
       </c>
       <c r="L2" t="n">
-        <v>16.6173</v>
+        <v>30.5482</v>
       </c>
     </row>
     <row r="3">
@@ -978,7 +978,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>1e-05</v>
+        <v>40</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -990,13 +990,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>18.3152</v>
+        <v>31.3211</v>
       </c>
       <c r="K3" t="n">
-        <v>2.13055</v>
+        <v>3.69341</v>
       </c>
       <c r="L3" t="n">
-        <v>20.4457</v>
+        <v>35.0145</v>
       </c>
     </row>
     <row r="4">
@@ -1016,7 +1016,7 @@
         <v>1e-05</v>
       </c>
       <c r="F4" t="n">
-        <v>1e-05</v>
+        <v>40</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -1028,13 +1028,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0.37512</v>
+        <v>0.643864</v>
       </c>
       <c r="K4" t="n">
-        <v>5.2006</v>
+        <v>11.6754</v>
       </c>
       <c r="L4" t="n">
-        <v>5.5757</v>
+        <v>12.3193</v>
       </c>
     </row>
     <row r="5">
@@ -1066,13 +1066,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>15.6521</v>
+        <v>27.1095</v>
       </c>
       <c r="K5" t="n">
-        <v>13.1118</v>
+        <v>22.711</v>
       </c>
       <c r="L5" t="n">
-        <v>2.54031</v>
+        <v>4.39842</v>
       </c>
     </row>
     <row r="6">
@@ -1104,13 +1104,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.37444</v>
+        <v>0.64854</v>
       </c>
       <c r="K6" t="n">
-        <v>2.1642</v>
+        <v>3.7499</v>
       </c>
       <c r="L6" t="n">
-        <v>2.5386</v>
+        <v>4.3984</v>
       </c>
     </row>
     <row r="7">
@@ -1139,16 +1139,16 @@
         <v>1e-05</v>
       </c>
       <c r="I7" t="n">
-        <v>1e-05</v>
+        <v>40</v>
       </c>
       <c r="J7" t="n">
-        <v>22.5033</v>
+        <v>39.8462</v>
       </c>
       <c r="K7" t="n">
-        <v>5.92402</v>
+        <v>9.391360000000001</v>
       </c>
       <c r="L7" t="n">
-        <v>16.5793</v>
+        <v>30.4549</v>
       </c>
     </row>
     <row r="8">
@@ -1177,16 +1177,16 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>1e-05</v>
+        <v>40</v>
       </c>
       <c r="J8" t="n">
-        <v>18.2423</v>
+        <v>31.1818</v>
       </c>
       <c r="K8" t="n">
-        <v>2.13483</v>
+        <v>3.70078</v>
       </c>
       <c r="L8" t="n">
-        <v>20.3772</v>
+        <v>34.8826</v>
       </c>
     </row>
     <row r="9">
@@ -1215,16 +1215,16 @@
         <v>1e-05</v>
       </c>
       <c r="I9" t="n">
-        <v>1e-05</v>
+        <v>40</v>
       </c>
       <c r="J9" t="n">
-        <v>0.3756</v>
+        <v>0.645405</v>
       </c>
       <c r="K9" t="n">
-        <v>5.2384</v>
+        <v>11.7059</v>
       </c>
       <c r="L9" t="n">
-        <v>5.614</v>
+        <v>12.3513</v>
       </c>
     </row>
     <row r="10">
@@ -1256,13 +1256,13 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>15.4838</v>
+        <v>26.818</v>
       </c>
       <c r="K10" t="n">
-        <v>12.9435</v>
+        <v>22.4196</v>
       </c>
       <c r="L10" t="n">
-        <v>2.5403</v>
+        <v>4.39842</v>
       </c>
     </row>
     <row r="11">
@@ -1294,13 +1294,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0.37444</v>
+        <v>0.64854</v>
       </c>
       <c r="K11" t="n">
-        <v>2.1642</v>
+        <v>3.7499</v>
       </c>
       <c r="L11" t="n">
-        <v>2.5386</v>
+        <v>4.3984</v>
       </c>
     </row>
     <row r="12">
@@ -1320,7 +1320,7 @@
         <v>1e-05</v>
       </c>
       <c r="F12" t="n">
-        <v>1e-05</v>
+        <v>40</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -1332,13 +1332,13 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>22.6786</v>
+        <v>40.1627</v>
       </c>
       <c r="K12" t="n">
-        <v>6.06375</v>
+        <v>9.620509999999999</v>
       </c>
       <c r="L12" t="n">
-        <v>16.6149</v>
+        <v>30.5422</v>
       </c>
     </row>
     <row r="13">
@@ -1358,7 +1358,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>1e-05</v>
+        <v>40</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1370,13 +1370,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>18.3105</v>
+        <v>31.312</v>
       </c>
       <c r="K13" t="n">
-        <v>2.1309</v>
+        <v>3.69401</v>
       </c>
       <c r="L13" t="n">
-        <v>20.4414</v>
+        <v>35.006</v>
       </c>
     </row>
     <row r="14">
@@ -1396,7 +1396,7 @@
         <v>1e-05</v>
       </c>
       <c r="F14" t="n">
-        <v>1e-05</v>
+        <v>40</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1408,13 +1408,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0.375156</v>
+        <v>0.643991</v>
       </c>
       <c r="K14" t="n">
-        <v>5.20307</v>
+        <v>11.6775</v>
       </c>
       <c r="L14" t="n">
-        <v>5.57822</v>
+        <v>12.3215</v>
       </c>
     </row>
     <row r="15">
@@ -1446,13 +1446,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>15.6413</v>
+        <v>27.0908</v>
       </c>
       <c r="K15" t="n">
-        <v>13.101</v>
+        <v>22.6924</v>
       </c>
       <c r="L15" t="n">
-        <v>2.54031</v>
+        <v>4.39842</v>
       </c>
     </row>
     <row r="16">
@@ -1484,13 +1484,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0.374437</v>
+        <v>0.64854</v>
       </c>
       <c r="K16" t="n">
-        <v>2.1642</v>
+        <v>3.74988</v>
       </c>
       <c r="L16" t="n">
-        <v>2.53863</v>
+        <v>4.39842</v>
       </c>
     </row>
     <row r="17">
@@ -1519,16 +1519,16 @@
         <v>1e-05</v>
       </c>
       <c r="I17" t="n">
-        <v>1e-05</v>
+        <v>40</v>
       </c>
       <c r="J17" t="n">
-        <v>22.5033</v>
+        <v>39.8462</v>
       </c>
       <c r="K17" t="n">
-        <v>5.92402</v>
+        <v>9.391360000000001</v>
       </c>
       <c r="L17" t="n">
-        <v>16.5793</v>
+        <v>30.4549</v>
       </c>
     </row>
     <row r="18">
@@ -1557,16 +1557,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1e-05</v>
+        <v>40</v>
       </c>
       <c r="J18" t="n">
-        <v>18.2423</v>
+        <v>31.1818</v>
       </c>
       <c r="K18" t="n">
-        <v>2.13483</v>
+        <v>3.70078</v>
       </c>
       <c r="L18" t="n">
-        <v>20.3772</v>
+        <v>34.8826</v>
       </c>
     </row>
     <row r="19">
@@ -1595,16 +1595,16 @@
         <v>1e-05</v>
       </c>
       <c r="I19" t="n">
-        <v>1e-05</v>
+        <v>40</v>
       </c>
       <c r="J19" t="n">
-        <v>0.375599</v>
+        <v>0.645405</v>
       </c>
       <c r="K19" t="n">
-        <v>5.23841</v>
+        <v>11.7059</v>
       </c>
       <c r="L19" t="n">
-        <v>5.61401</v>
+        <v>12.3513</v>
       </c>
     </row>
     <row r="20">
@@ -1636,13 +1636,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>15.4838</v>
+        <v>26.818</v>
       </c>
       <c r="K20" t="n">
-        <v>12.9435</v>
+        <v>22.4196</v>
       </c>
       <c r="L20" t="n">
-        <v>2.5403</v>
+        <v>4.39842</v>
       </c>
     </row>
     <row r="21">
@@ -1674,13 +1674,13 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.374437</v>
+        <v>0.64854</v>
       </c>
       <c r="K21" t="n">
-        <v>2.1642</v>
+        <v>3.74988</v>
       </c>
       <c r="L21" t="n">
-        <v>2.53863</v>
+        <v>4.39842</v>
       </c>
     </row>
     <row r="22">
@@ -1700,7 +1700,7 @@
         <v>1e-05</v>
       </c>
       <c r="F22" t="n">
-        <v>1e-05</v>
+        <v>40</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -1712,13 +1712,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>22.6665</v>
+        <v>40.1409</v>
       </c>
       <c r="K22" t="n">
-        <v>6.05411</v>
+        <v>9.60472</v>
       </c>
       <c r="L22" t="n">
-        <v>16.6124</v>
+        <v>30.5362</v>
       </c>
     </row>
     <row r="23">
@@ -1738,7 +1738,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>1e-05</v>
+        <v>40</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -1750,13 +1750,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>18.3057</v>
+        <v>31.3029</v>
       </c>
       <c r="K23" t="n">
-        <v>2.13125</v>
+        <v>3.69462</v>
       </c>
       <c r="L23" t="n">
-        <v>20.437</v>
+        <v>34.9975</v>
       </c>
     </row>
     <row r="24">
@@ -1776,7 +1776,7 @@
         <v>1e-05</v>
       </c>
       <c r="F24" t="n">
-        <v>1e-05</v>
+        <v>40</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -1788,13 +1788,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0.375197</v>
+        <v>0.64412</v>
       </c>
       <c r="K24" t="n">
-        <v>5.2056</v>
+        <v>11.6796</v>
       </c>
       <c r="L24" t="n">
-        <v>5.58079</v>
+        <v>12.3237</v>
       </c>
     </row>
     <row r="25">
@@ -1826,13 +1826,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>15.6305</v>
+        <v>27.072</v>
       </c>
       <c r="K25" t="n">
-        <v>13.0902</v>
+        <v>22.6736</v>
       </c>
       <c r="L25" t="n">
-        <v>2.54031</v>
+        <v>4.39842</v>
       </c>
     </row>
     <row r="26">
@@ -1864,13 +1864,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0.374437</v>
+        <v>0.64854</v>
       </c>
       <c r="K26" t="n">
-        <v>2.1642</v>
+        <v>3.74988</v>
       </c>
       <c r="L26" t="n">
-        <v>2.53863</v>
+        <v>4.39842</v>
       </c>
     </row>
     <row r="27">
@@ -1899,16 +1899,16 @@
         <v>1e-05</v>
       </c>
       <c r="I27" t="n">
-        <v>1e-05</v>
+        <v>40</v>
       </c>
       <c r="J27" t="n">
-        <v>22.5033</v>
+        <v>39.8462</v>
       </c>
       <c r="K27" t="n">
-        <v>5.92402</v>
+        <v>9.391360000000001</v>
       </c>
       <c r="L27" t="n">
-        <v>16.5793</v>
+        <v>30.4549</v>
       </c>
     </row>
     <row r="28">
@@ -1937,16 +1937,16 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>1e-05</v>
+        <v>40</v>
       </c>
       <c r="J28" t="n">
-        <v>18.2423</v>
+        <v>31.1818</v>
       </c>
       <c r="K28" t="n">
-        <v>2.13483</v>
+        <v>3.70078</v>
       </c>
       <c r="L28" t="n">
-        <v>20.3772</v>
+        <v>34.8826</v>
       </c>
     </row>
     <row r="29">
@@ -1975,16 +1975,16 @@
         <v>1e-05</v>
       </c>
       <c r="I29" t="n">
-        <v>1e-05</v>
+        <v>40</v>
       </c>
       <c r="J29" t="n">
-        <v>0.375599</v>
+        <v>0.645405</v>
       </c>
       <c r="K29" t="n">
-        <v>5.23841</v>
+        <v>11.7059</v>
       </c>
       <c r="L29" t="n">
-        <v>5.61401</v>
+        <v>12.3513</v>
       </c>
     </row>
     <row r="30">
@@ -2016,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>15.4838</v>
+        <v>26.818</v>
       </c>
       <c r="K30" t="n">
-        <v>12.9435</v>
+        <v>22.4196</v>
       </c>
       <c r="L30" t="n">
-        <v>2.5403</v>
+        <v>4.39842</v>
       </c>
     </row>
     <row r="31">
@@ -2054,13 +2054,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0.374437</v>
+        <v>0.64854</v>
       </c>
       <c r="K31" t="n">
-        <v>2.1642</v>
+        <v>3.74988</v>
       </c>
       <c r="L31" t="n">
-        <v>2.53863</v>
+        <v>4.39842</v>
       </c>
     </row>
     <row r="32">
@@ -2080,7 +2080,7 @@
         <v>1e-05</v>
       </c>
       <c r="F32" t="n">
-        <v>1e-05</v>
+        <v>40</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -2092,13 +2092,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>22.6544</v>
+        <v>40.119</v>
       </c>
       <c r="K32" t="n">
-        <v>6.04447</v>
+        <v>9.588950000000001</v>
       </c>
       <c r="L32" t="n">
-        <v>16.61</v>
+        <v>30.5301</v>
       </c>
     </row>
     <row r="33">
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>1e-05</v>
+        <v>40</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -2130,13 +2130,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>18.3009</v>
+        <v>31.2938</v>
       </c>
       <c r="K33" t="n">
-        <v>2.13161</v>
+        <v>3.69523</v>
       </c>
       <c r="L33" t="n">
-        <v>20.4326</v>
+        <v>34.989</v>
       </c>
     </row>
     <row r="34">
@@ -2156,7 +2156,7 @@
         <v>1e-05</v>
       </c>
       <c r="F34" t="n">
-        <v>1e-05</v>
+        <v>40</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -2168,13 +2168,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0.375239</v>
+        <v>0.64425</v>
       </c>
       <c r="K34" t="n">
-        <v>5.20812</v>
+        <v>11.6817</v>
       </c>
       <c r="L34" t="n">
-        <v>5.58336</v>
+        <v>12.326</v>
       </c>
     </row>
     <row r="35">
@@ -2206,13 +2206,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>15.6196</v>
+        <v>27.0532</v>
       </c>
       <c r="K35" t="n">
-        <v>13.0793</v>
+        <v>22.6548</v>
       </c>
       <c r="L35" t="n">
-        <v>2.54031</v>
+        <v>4.39842</v>
       </c>
     </row>
     <row r="36">
@@ -2244,13 +2244,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.374437</v>
+        <v>0.64854</v>
       </c>
       <c r="K36" t="n">
-        <v>2.1642</v>
+        <v>3.74988</v>
       </c>
       <c r="L36" t="n">
-        <v>2.53863</v>
+        <v>4.39842</v>
       </c>
     </row>
     <row r="37">
@@ -2279,16 +2279,16 @@
         <v>1e-05</v>
       </c>
       <c r="I37" t="n">
-        <v>1e-05</v>
+        <v>40</v>
       </c>
       <c r="J37" t="n">
-        <v>22.5033</v>
+        <v>39.8462</v>
       </c>
       <c r="K37" t="n">
-        <v>5.92402</v>
+        <v>9.391360000000001</v>
       </c>
       <c r="L37" t="n">
-        <v>16.5793</v>
+        <v>30.4549</v>
       </c>
     </row>
     <row r="38">
@@ -2317,16 +2317,16 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1e-05</v>
+        <v>40</v>
       </c>
       <c r="J38" t="n">
-        <v>18.2423</v>
+        <v>31.1818</v>
       </c>
       <c r="K38" t="n">
-        <v>2.13483</v>
+        <v>3.70078</v>
       </c>
       <c r="L38" t="n">
-        <v>20.3772</v>
+        <v>34.8826</v>
       </c>
     </row>
     <row r="39">
@@ -2355,16 +2355,16 @@
         <v>1e-05</v>
       </c>
       <c r="I39" t="n">
-        <v>1e-05</v>
+        <v>40</v>
       </c>
       <c r="J39" t="n">
-        <v>0.375599</v>
+        <v>0.645405</v>
       </c>
       <c r="K39" t="n">
-        <v>5.23841</v>
+        <v>11.7059</v>
       </c>
       <c r="L39" t="n">
-        <v>5.61401</v>
+        <v>12.3513</v>
       </c>
     </row>
     <row r="40">
@@ -2396,13 +2396,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>15.4838</v>
+        <v>26.818</v>
       </c>
       <c r="K40" t="n">
-        <v>12.9435</v>
+        <v>22.4196</v>
       </c>
       <c r="L40" t="n">
-        <v>2.5403</v>
+        <v>4.39842</v>
       </c>
     </row>
     <row r="41">
@@ -2434,13 +2434,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0.374437</v>
+        <v>0.64854</v>
       </c>
       <c r="K41" t="n">
-        <v>2.1642</v>
+        <v>3.74988</v>
       </c>
       <c r="L41" t="n">
-        <v>2.53863</v>
+        <v>4.39842</v>
       </c>
     </row>
     <row r="42">
@@ -2460,7 +2460,7 @@
         <v>1e-05</v>
       </c>
       <c r="F42" t="n">
-        <v>1e-05</v>
+        <v>40</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -2472,13 +2472,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>22.6424</v>
+        <v>40.0972</v>
       </c>
       <c r="K42" t="n">
-        <v>6.03484</v>
+        <v>9.573180000000001</v>
       </c>
       <c r="L42" t="n">
-        <v>16.6075</v>
+        <v>30.5241</v>
       </c>
     </row>
     <row r="43">
@@ -2498,7 +2498,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>1e-05</v>
+        <v>40</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -2510,13 +2510,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>18.2962</v>
+        <v>31.2847</v>
       </c>
       <c r="K43" t="n">
-        <v>2.13196</v>
+        <v>3.69583</v>
       </c>
       <c r="L43" t="n">
-        <v>20.4282</v>
+        <v>34.9805</v>
       </c>
     </row>
     <row r="44">
@@ -2536,7 +2536,7 @@
         <v>1e-05</v>
       </c>
       <c r="F44" t="n">
-        <v>1e-05</v>
+        <v>40</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -2548,13 +2548,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0.37528</v>
+        <v>0.644379</v>
       </c>
       <c r="K44" t="n">
-        <v>5.21064</v>
+        <v>11.6838</v>
       </c>
       <c r="L44" t="n">
-        <v>5.58592</v>
+        <v>12.3282</v>
       </c>
     </row>
     <row r="45">
@@ -2586,13 +2586,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>15.6088</v>
+        <v>27.0344</v>
       </c>
       <c r="K45" t="n">
-        <v>13.0685</v>
+        <v>22.636</v>
       </c>
       <c r="L45" t="n">
-        <v>2.54031</v>
+        <v>4.39842</v>
       </c>
     </row>
     <row r="46">
@@ -2624,13 +2624,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0.374437</v>
+        <v>0.64854</v>
       </c>
       <c r="K46" t="n">
-        <v>2.1642</v>
+        <v>3.74988</v>
       </c>
       <c r="L46" t="n">
-        <v>2.53863</v>
+        <v>4.39842</v>
       </c>
     </row>
     <row r="47">
@@ -2659,16 +2659,16 @@
         <v>1e-05</v>
       </c>
       <c r="I47" t="n">
-        <v>1e-05</v>
+        <v>40</v>
       </c>
       <c r="J47" t="n">
-        <v>22.5033</v>
+        <v>39.8462</v>
       </c>
       <c r="K47" t="n">
-        <v>5.92402</v>
+        <v>9.391360000000001</v>
       </c>
       <c r="L47" t="n">
-        <v>16.5793</v>
+        <v>30.4549</v>
       </c>
     </row>
     <row r="48">
@@ -2697,16 +2697,16 @@
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>1e-05</v>
+        <v>40</v>
       </c>
       <c r="J48" t="n">
-        <v>18.2423</v>
+        <v>31.1818</v>
       </c>
       <c r="K48" t="n">
-        <v>2.13483</v>
+        <v>3.70078</v>
       </c>
       <c r="L48" t="n">
-        <v>20.3772</v>
+        <v>34.8826</v>
       </c>
     </row>
     <row r="49">
@@ -2735,16 +2735,16 @@
         <v>1e-05</v>
       </c>
       <c r="I49" t="n">
-        <v>1e-05</v>
+        <v>40</v>
       </c>
       <c r="J49" t="n">
-        <v>0.375599</v>
+        <v>0.645405</v>
       </c>
       <c r="K49" t="n">
-        <v>5.23841</v>
+        <v>11.7059</v>
       </c>
       <c r="L49" t="n">
-        <v>5.61401</v>
+        <v>12.3513</v>
       </c>
     </row>
     <row r="50">
@@ -2776,13 +2776,13 @@
         <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>15.4838</v>
+        <v>26.818</v>
       </c>
       <c r="K50" t="n">
-        <v>12.9435</v>
+        <v>22.4196</v>
       </c>
       <c r="L50" t="n">
-        <v>2.5403</v>
+        <v>4.39842</v>
       </c>
     </row>
     <row r="51">
@@ -2814,13 +2814,13 @@
         <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>0.374437</v>
+        <v>0.64854</v>
       </c>
       <c r="K51" t="n">
-        <v>2.1642</v>
+        <v>3.74988</v>
       </c>
       <c r="L51" t="n">
-        <v>2.53863</v>
+        <v>4.39842</v>
       </c>
     </row>
     <row r="52">
@@ -2840,7 +2840,7 @@
         <v>1e-05</v>
       </c>
       <c r="F52" t="n">
-        <v>1e-05</v>
+        <v>40</v>
       </c>
       <c r="G52" t="n">
         <v>0</v>
@@ -2852,13 +2852,13 @@
         <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>22.6303</v>
+        <v>40.0754</v>
       </c>
       <c r="K52" t="n">
-        <v>6.02522</v>
+        <v>9.55742</v>
       </c>
       <c r="L52" t="n">
-        <v>16.6051</v>
+        <v>30.518</v>
       </c>
     </row>
     <row r="53">
@@ -2878,7 +2878,7 @@
         <v>0</v>
       </c>
       <c r="F53" t="n">
-        <v>1e-05</v>
+        <v>40</v>
       </c>
       <c r="G53" t="n">
         <v>0</v>
@@ -2890,13 +2890,13 @@
         <v>0</v>
       </c>
       <c r="J53" t="n">
-        <v>18.2914</v>
+        <v>31.2755</v>
       </c>
       <c r="K53" t="n">
-        <v>2.13231</v>
+        <v>3.69644</v>
       </c>
       <c r="L53" t="n">
-        <v>20.4238</v>
+        <v>34.972</v>
       </c>
     </row>
     <row r="54">
@@ -2916,7 +2916,7 @@
         <v>1e-05</v>
       </c>
       <c r="F54" t="n">
-        <v>1e-05</v>
+        <v>40</v>
       </c>
       <c r="G54" t="n">
         <v>0</v>
@@ -2928,13 +2928,13 @@
         <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>0.375322</v>
+        <v>0.644508</v>
       </c>
       <c r="K54" t="n">
-        <v>5.21315</v>
+        <v>11.6859</v>
       </c>
       <c r="L54" t="n">
-        <v>5.58848</v>
+        <v>12.3304</v>
       </c>
     </row>
     <row r="55">
@@ -2966,13 +2966,13 @@
         <v>0</v>
       </c>
       <c r="J55" t="n">
-        <v>15.5979</v>
+        <v>27.0156</v>
       </c>
       <c r="K55" t="n">
-        <v>13.0576</v>
+        <v>22.6172</v>
       </c>
       <c r="L55" t="n">
-        <v>2.54031</v>
+        <v>4.39842</v>
       </c>
     </row>
     <row r="56">
@@ -3004,13 +3004,13 @@
         <v>0</v>
       </c>
       <c r="J56" t="n">
-        <v>0.374437</v>
+        <v>0.64854</v>
       </c>
       <c r="K56" t="n">
-        <v>2.1642</v>
+        <v>3.74988</v>
       </c>
       <c r="L56" t="n">
-        <v>2.53863</v>
+        <v>4.39842</v>
       </c>
     </row>
     <row r="57">
@@ -3039,16 +3039,16 @@
         <v>1e-05</v>
       </c>
       <c r="I57" t="n">
-        <v>1e-05</v>
+        <v>40</v>
       </c>
       <c r="J57" t="n">
-        <v>22.5033</v>
+        <v>39.8462</v>
       </c>
       <c r="K57" t="n">
-        <v>5.92402</v>
+        <v>9.391360000000001</v>
       </c>
       <c r="L57" t="n">
-        <v>16.5793</v>
+        <v>30.4549</v>
       </c>
     </row>
     <row r="58">
@@ -3077,16 +3077,16 @@
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>1e-05</v>
+        <v>40</v>
       </c>
       <c r="J58" t="n">
-        <v>18.2423</v>
+        <v>31.1818</v>
       </c>
       <c r="K58" t="n">
-        <v>2.13483</v>
+        <v>3.70078</v>
       </c>
       <c r="L58" t="n">
-        <v>20.3772</v>
+        <v>34.8826</v>
       </c>
     </row>
     <row r="59">
@@ -3115,16 +3115,16 @@
         <v>1e-05</v>
       </c>
       <c r="I59" t="n">
-        <v>1e-05</v>
+        <v>40</v>
       </c>
       <c r="J59" t="n">
-        <v>0.375599</v>
+        <v>0.645405</v>
       </c>
       <c r="K59" t="n">
-        <v>5.23841</v>
+        <v>11.7059</v>
       </c>
       <c r="L59" t="n">
-        <v>5.61401</v>
+        <v>12.3513</v>
       </c>
     </row>
     <row r="60">
@@ -3156,13 +3156,13 @@
         <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>15.4838</v>
+        <v>26.818</v>
       </c>
       <c r="K60" t="n">
-        <v>12.9435</v>
+        <v>22.4196</v>
       </c>
       <c r="L60" t="n">
-        <v>2.5403</v>
+        <v>4.39842</v>
       </c>
     </row>
     <row r="61">
@@ -3194,13 +3194,13 @@
         <v>0</v>
       </c>
       <c r="J61" t="n">
-        <v>0.374437</v>
+        <v>0.64854</v>
       </c>
       <c r="K61" t="n">
-        <v>2.1642</v>
+        <v>3.74988</v>
       </c>
       <c r="L61" t="n">
-        <v>2.53863</v>
+        <v>4.39842</v>
       </c>
     </row>
     <row r="62">
@@ -3220,7 +3220,7 @@
         <v>1e-05</v>
       </c>
       <c r="F62" t="n">
-        <v>1e-05</v>
+        <v>40</v>
       </c>
       <c r="G62" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="J62" t="n">
-        <v>22.6183</v>
+        <v>40.0536</v>
       </c>
       <c r="K62" t="n">
-        <v>6.0156</v>
+        <v>9.54167</v>
       </c>
       <c r="L62" t="n">
-        <v>16.6026</v>
+        <v>30.5119</v>
       </c>
     </row>
     <row r="63">
@@ -3258,7 +3258,7 @@
         <v>0</v>
       </c>
       <c r="F63" t="n">
-        <v>1e-05</v>
+        <v>40</v>
       </c>
       <c r="G63" t="n">
         <v>0</v>
@@ -3270,13 +3270,13 @@
         <v>0</v>
       </c>
       <c r="J63" t="n">
-        <v>18.2867</v>
+        <v>31.2664</v>
       </c>
       <c r="K63" t="n">
-        <v>2.13267</v>
+        <v>3.69705</v>
       </c>
       <c r="L63" t="n">
-        <v>20.4194</v>
+        <v>34.9635</v>
       </c>
     </row>
     <row r="64">
@@ -3296,7 +3296,7 @@
         <v>1e-05</v>
       </c>
       <c r="F64" t="n">
-        <v>1e-05</v>
+        <v>40</v>
       </c>
       <c r="G64" t="n">
         <v>0</v>
@@ -3308,13 +3308,13 @@
         <v>0</v>
       </c>
       <c r="J64" t="n">
-        <v>0.375364</v>
+        <v>0.644638</v>
       </c>
       <c r="K64" t="n">
-        <v>5.21567</v>
+        <v>11.688</v>
       </c>
       <c r="L64" t="n">
-        <v>5.59103</v>
+        <v>12.3326</v>
       </c>
     </row>
     <row r="65">
@@ -3346,13 +3346,13 @@
         <v>0</v>
       </c>
       <c r="J65" t="n">
-        <v>15.5871</v>
+        <v>26.9969</v>
       </c>
       <c r="K65" t="n">
-        <v>13.0468</v>
+        <v>22.5984</v>
       </c>
       <c r="L65" t="n">
-        <v>2.54031</v>
+        <v>4.39842</v>
       </c>
     </row>
     <row r="66">
@@ -3384,13 +3384,13 @@
         <v>0</v>
       </c>
       <c r="J66" t="n">
-        <v>0.374437</v>
+        <v>0.64854</v>
       </c>
       <c r="K66" t="n">
-        <v>2.1642</v>
+        <v>3.74988</v>
       </c>
       <c r="L66" t="n">
-        <v>2.53863</v>
+        <v>4.39842</v>
       </c>
     </row>
     <row r="67">
@@ -3419,16 +3419,16 @@
         <v>1e-05</v>
       </c>
       <c r="I67" t="n">
-        <v>1e-05</v>
+        <v>40</v>
       </c>
       <c r="J67" t="n">
-        <v>22.5033</v>
+        <v>39.8462</v>
       </c>
       <c r="K67" t="n">
-        <v>5.92402</v>
+        <v>9.391360000000001</v>
       </c>
       <c r="L67" t="n">
-        <v>16.5793</v>
+        <v>30.4549</v>
       </c>
     </row>
     <row r="68">
@@ -3457,16 +3457,16 @@
         <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>1e-05</v>
+        <v>40</v>
       </c>
       <c r="J68" t="n">
-        <v>18.2423</v>
+        <v>31.1818</v>
       </c>
       <c r="K68" t="n">
-        <v>2.13483</v>
+        <v>3.70078</v>
       </c>
       <c r="L68" t="n">
-        <v>20.3772</v>
+        <v>34.8826</v>
       </c>
     </row>
     <row r="69">
@@ -3495,16 +3495,16 @@
         <v>1e-05</v>
       </c>
       <c r="I69" t="n">
-        <v>1e-05</v>
+        <v>40</v>
       </c>
       <c r="J69" t="n">
-        <v>0.375599</v>
+        <v>0.645405</v>
       </c>
       <c r="K69" t="n">
-        <v>5.23841</v>
+        <v>11.7059</v>
       </c>
       <c r="L69" t="n">
-        <v>5.61401</v>
+        <v>12.3513</v>
       </c>
     </row>
     <row r="70">
@@ -3536,13 +3536,13 @@
         <v>0</v>
       </c>
       <c r="J70" t="n">
-        <v>15.4838</v>
+        <v>26.818</v>
       </c>
       <c r="K70" t="n">
-        <v>12.9435</v>
+        <v>22.4196</v>
       </c>
       <c r="L70" t="n">
-        <v>2.5403</v>
+        <v>4.39842</v>
       </c>
     </row>
     <row r="71">
@@ -3574,13 +3574,13 @@
         <v>0</v>
       </c>
       <c r="J71" t="n">
-        <v>0.374437</v>
+        <v>0.64854</v>
       </c>
       <c r="K71" t="n">
-        <v>2.1642</v>
+        <v>3.74988</v>
       </c>
       <c r="L71" t="n">
-        <v>2.53863</v>
+        <v>4.39842</v>
       </c>
     </row>
     <row r="72">
@@ -3600,7 +3600,7 @@
         <v>1e-05</v>
       </c>
       <c r="F72" t="n">
-        <v>1e-05</v>
+        <v>40</v>
       </c>
       <c r="G72" t="n">
         <v>0</v>
@@ -3612,13 +3612,13 @@
         <v>0</v>
       </c>
       <c r="J72" t="n">
-        <v>22.6062</v>
+        <v>40.0318</v>
       </c>
       <c r="K72" t="n">
-        <v>6.00599</v>
+        <v>9.525930000000001</v>
       </c>
       <c r="L72" t="n">
-        <v>16.6002</v>
+        <v>30.5059</v>
       </c>
     </row>
     <row r="73">
@@ -3638,7 +3638,7 @@
         <v>0</v>
       </c>
       <c r="F73" t="n">
-        <v>1e-05</v>
+        <v>40</v>
       </c>
       <c r="G73" t="n">
         <v>0</v>
@@ -3650,13 +3650,13 @@
         <v>0</v>
       </c>
       <c r="J73" t="n">
-        <v>18.2819</v>
+        <v>31.2573</v>
       </c>
       <c r="K73" t="n">
-        <v>2.13302</v>
+        <v>3.69766</v>
       </c>
       <c r="L73" t="n">
-        <v>20.415</v>
+        <v>34.955</v>
       </c>
     </row>
     <row r="74">
@@ -3676,7 +3676,7 @@
         <v>1e-05</v>
       </c>
       <c r="F74" t="n">
-        <v>1e-05</v>
+        <v>40</v>
       </c>
       <c r="G74" t="n">
         <v>0</v>
@@ -3688,13 +3688,13 @@
         <v>0</v>
       </c>
       <c r="J74" t="n">
-        <v>0.375406</v>
+        <v>0.644768</v>
       </c>
       <c r="K74" t="n">
-        <v>5.21817</v>
+        <v>11.6901</v>
       </c>
       <c r="L74" t="n">
-        <v>5.59358</v>
+        <v>12.3348</v>
       </c>
     </row>
     <row r="75">
@@ -3726,13 +3726,13 @@
         <v>0</v>
       </c>
       <c r="J75" t="n">
-        <v>15.5762</v>
+        <v>26.9781</v>
       </c>
       <c r="K75" t="n">
-        <v>13.0359</v>
+        <v>22.5797</v>
       </c>
       <c r="L75" t="n">
-        <v>2.54031</v>
+        <v>4.39842</v>
       </c>
     </row>
     <row r="76">
@@ -3764,13 +3764,13 @@
         <v>0</v>
       </c>
       <c r="J76" t="n">
-        <v>0.374437</v>
+        <v>0.64854</v>
       </c>
       <c r="K76" t="n">
-        <v>2.1642</v>
+        <v>3.74988</v>
       </c>
       <c r="L76" t="n">
-        <v>2.53863</v>
+        <v>4.39842</v>
       </c>
     </row>
     <row r="77">
@@ -3799,16 +3799,16 @@
         <v>1e-05</v>
       </c>
       <c r="I77" t="n">
-        <v>1e-05</v>
+        <v>40</v>
       </c>
       <c r="J77" t="n">
-        <v>22.5033</v>
+        <v>39.8462</v>
       </c>
       <c r="K77" t="n">
-        <v>5.92402</v>
+        <v>9.391360000000001</v>
       </c>
       <c r="L77" t="n">
-        <v>16.5793</v>
+        <v>30.4549</v>
       </c>
     </row>
     <row r="78">
@@ -3837,16 +3837,16 @@
         <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>1e-05</v>
+        <v>40</v>
       </c>
       <c r="J78" t="n">
-        <v>18.2423</v>
+        <v>31.1818</v>
       </c>
       <c r="K78" t="n">
-        <v>2.13483</v>
+        <v>3.70078</v>
       </c>
       <c r="L78" t="n">
-        <v>20.3772</v>
+        <v>34.8826</v>
       </c>
     </row>
     <row r="79">
@@ -3875,16 +3875,16 @@
         <v>1e-05</v>
       </c>
       <c r="I79" t="n">
-        <v>1e-05</v>
+        <v>40</v>
       </c>
       <c r="J79" t="n">
-        <v>0.375599</v>
+        <v>0.645405</v>
       </c>
       <c r="K79" t="n">
-        <v>5.23841</v>
+        <v>11.7059</v>
       </c>
       <c r="L79" t="n">
-        <v>5.61401</v>
+        <v>12.3513</v>
       </c>
     </row>
     <row r="80">
@@ -3916,13 +3916,13 @@
         <v>0</v>
       </c>
       <c r="J80" t="n">
-        <v>15.4838</v>
+        <v>26.818</v>
       </c>
       <c r="K80" t="n">
-        <v>12.9435</v>
+        <v>22.4196</v>
       </c>
       <c r="L80" t="n">
-        <v>2.5403</v>
+        <v>4.39842</v>
       </c>
     </row>
     <row r="81">
@@ -3954,13 +3954,13 @@
         <v>0</v>
       </c>
       <c r="J81" t="n">
-        <v>0.374437</v>
+        <v>0.64854</v>
       </c>
       <c r="K81" t="n">
-        <v>2.1642</v>
+        <v>3.74988</v>
       </c>
       <c r="L81" t="n">
-        <v>2.53863</v>
+        <v>4.39842</v>
       </c>
     </row>
     <row r="82">
@@ -3980,7 +3980,7 @@
         <v>1e-05</v>
       </c>
       <c r="F82" t="n">
-        <v>1e-05</v>
+        <v>40</v>
       </c>
       <c r="G82" t="n">
         <v>0</v>
@@ -3992,13 +3992,13 @@
         <v>0</v>
       </c>
       <c r="J82" t="n">
-        <v>22.5941</v>
+        <v>40.0101</v>
       </c>
       <c r="K82" t="n">
-        <v>5.99639</v>
+        <v>9.510199999999999</v>
       </c>
       <c r="L82" t="n">
-        <v>16.5978</v>
+        <v>30.4999</v>
       </c>
     </row>
     <row r="83">
@@ -4018,7 +4018,7 @@
         <v>0</v>
       </c>
       <c r="F83" t="n">
-        <v>1e-05</v>
+        <v>40</v>
       </c>
       <c r="G83" t="n">
         <v>0</v>
@@ -4030,13 +4030,13 @@
         <v>0</v>
       </c>
       <c r="J83" t="n">
-        <v>18.2772</v>
+        <v>31.2482</v>
       </c>
       <c r="K83" t="n">
-        <v>2.13337</v>
+        <v>3.69826</v>
       </c>
       <c r="L83" t="n">
-        <v>20.4106</v>
+        <v>34.9465</v>
       </c>
     </row>
     <row r="84">
@@ -4056,7 +4056,7 @@
         <v>1e-05</v>
       </c>
       <c r="F84" t="n">
-        <v>1e-05</v>
+        <v>40</v>
       </c>
       <c r="G84" t="n">
         <v>0</v>
@@ -4068,13 +4068,13 @@
         <v>0</v>
       </c>
       <c r="J84" t="n">
-        <v>0.375448</v>
+        <v>0.644898</v>
       </c>
       <c r="K84" t="n">
-        <v>5.22068</v>
+        <v>11.6921</v>
       </c>
       <c r="L84" t="n">
-        <v>5.59612</v>
+        <v>12.337</v>
       </c>
     </row>
     <row r="85">
@@ -4106,13 +4106,13 @@
         <v>0</v>
       </c>
       <c r="J85" t="n">
-        <v>15.5654</v>
+        <v>26.9593</v>
       </c>
       <c r="K85" t="n">
-        <v>13.0251</v>
+        <v>22.5609</v>
       </c>
       <c r="L85" t="n">
-        <v>2.54031</v>
+        <v>4.39842</v>
       </c>
     </row>
     <row r="86">
@@ -4144,13 +4144,13 @@
         <v>0</v>
       </c>
       <c r="J86" t="n">
-        <v>0.374437</v>
+        <v>0.64854</v>
       </c>
       <c r="K86" t="n">
-        <v>2.1642</v>
+        <v>3.74988</v>
       </c>
       <c r="L86" t="n">
-        <v>2.53863</v>
+        <v>4.39842</v>
       </c>
     </row>
     <row r="87">
@@ -4179,16 +4179,16 @@
         <v>1e-05</v>
       </c>
       <c r="I87" t="n">
-        <v>1e-05</v>
+        <v>40</v>
       </c>
       <c r="J87" t="n">
-        <v>22.5033</v>
+        <v>39.8462</v>
       </c>
       <c r="K87" t="n">
-        <v>5.92402</v>
+        <v>9.391360000000001</v>
       </c>
       <c r="L87" t="n">
-        <v>16.5793</v>
+        <v>30.4549</v>
       </c>
     </row>
     <row r="88">
@@ -4217,16 +4217,16 @@
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>1e-05</v>
+        <v>40</v>
       </c>
       <c r="J88" t="n">
-        <v>18.2423</v>
+        <v>31.1818</v>
       </c>
       <c r="K88" t="n">
-        <v>2.13483</v>
+        <v>3.70078</v>
       </c>
       <c r="L88" t="n">
-        <v>20.3772</v>
+        <v>34.8826</v>
       </c>
     </row>
     <row r="89">
@@ -4255,16 +4255,16 @@
         <v>1e-05</v>
       </c>
       <c r="I89" t="n">
-        <v>1e-05</v>
+        <v>40</v>
       </c>
       <c r="J89" t="n">
-        <v>0.375599</v>
+        <v>0.645405</v>
       </c>
       <c r="K89" t="n">
-        <v>5.23841</v>
+        <v>11.7059</v>
       </c>
       <c r="L89" t="n">
-        <v>5.61401</v>
+        <v>12.3513</v>
       </c>
     </row>
     <row r="90">
@@ -4296,13 +4296,13 @@
         <v>0</v>
       </c>
       <c r="J90" t="n">
-        <v>15.4838</v>
+        <v>26.818</v>
       </c>
       <c r="K90" t="n">
-        <v>12.9435</v>
+        <v>22.4196</v>
       </c>
       <c r="L90" t="n">
-        <v>2.5403</v>
+        <v>4.39842</v>
       </c>
     </row>
     <row r="91">
@@ -4334,13 +4334,13 @@
         <v>0</v>
       </c>
       <c r="J91" t="n">
-        <v>0.374437</v>
+        <v>0.64854</v>
       </c>
       <c r="K91" t="n">
-        <v>2.1642</v>
+        <v>3.74988</v>
       </c>
       <c r="L91" t="n">
-        <v>2.53863</v>
+        <v>4.39842</v>
       </c>
     </row>
     <row r="92">
@@ -4360,7 +4360,7 @@
         <v>1e-05</v>
       </c>
       <c r="F92" t="n">
-        <v>1e-05</v>
+        <v>40</v>
       </c>
       <c r="G92" t="n">
         <v>0</v>
@@ -4372,13 +4372,13 @@
         <v>0</v>
       </c>
       <c r="J92" t="n">
-        <v>22.5821</v>
+        <v>39.9883</v>
       </c>
       <c r="K92" t="n">
-        <v>5.98679</v>
+        <v>9.494479999999999</v>
       </c>
       <c r="L92" t="n">
-        <v>16.5953</v>
+        <v>30.4938</v>
       </c>
     </row>
     <row r="93">
@@ -4398,7 +4398,7 @@
         <v>0</v>
       </c>
       <c r="F93" t="n">
-        <v>1e-05</v>
+        <v>40</v>
       </c>
       <c r="G93" t="n">
         <v>0</v>
@@ -4410,13 +4410,13 @@
         <v>0</v>
       </c>
       <c r="J93" t="n">
-        <v>18.2724</v>
+        <v>31.2391</v>
       </c>
       <c r="K93" t="n">
-        <v>2.13372</v>
+        <v>3.69887</v>
       </c>
       <c r="L93" t="n">
-        <v>20.4062</v>
+        <v>34.938</v>
       </c>
     </row>
     <row r="94">
@@ -4436,7 +4436,7 @@
         <v>1e-05</v>
       </c>
       <c r="F94" t="n">
-        <v>1e-05</v>
+        <v>40</v>
       </c>
       <c r="G94" t="n">
         <v>0</v>
@@ -4448,13 +4448,13 @@
         <v>0</v>
       </c>
       <c r="J94" t="n">
-        <v>0.37549</v>
+        <v>0.645028</v>
       </c>
       <c r="K94" t="n">
-        <v>5.22318</v>
+        <v>11.6942</v>
       </c>
       <c r="L94" t="n">
-        <v>5.59867</v>
+        <v>12.3392</v>
       </c>
     </row>
     <row r="95">
@@ -4486,13 +4486,13 @@
         <v>0</v>
       </c>
       <c r="J95" t="n">
-        <v>15.5546</v>
+        <v>26.9406</v>
       </c>
       <c r="K95" t="n">
-        <v>13.0143</v>
+        <v>22.5422</v>
       </c>
       <c r="L95" t="n">
-        <v>2.54031</v>
+        <v>4.39842</v>
       </c>
     </row>
     <row r="96">
@@ -4524,13 +4524,13 @@
         <v>0</v>
       </c>
       <c r="J96" t="n">
-        <v>0.374437</v>
+        <v>0.64854</v>
       </c>
       <c r="K96" t="n">
-        <v>2.1642</v>
+        <v>3.74988</v>
       </c>
       <c r="L96" t="n">
-        <v>2.53863</v>
+        <v>4.39842</v>
       </c>
     </row>
     <row r="97">
@@ -4559,16 +4559,16 @@
         <v>1e-05</v>
       </c>
       <c r="I97" t="n">
-        <v>1e-05</v>
+        <v>40</v>
       </c>
       <c r="J97" t="n">
-        <v>22.5033</v>
+        <v>39.8462</v>
       </c>
       <c r="K97" t="n">
-        <v>5.92402</v>
+        <v>9.391360000000001</v>
       </c>
       <c r="L97" t="n">
-        <v>16.5793</v>
+        <v>30.4549</v>
       </c>
     </row>
     <row r="98">
@@ -4597,16 +4597,16 @@
         <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>1e-05</v>
+        <v>40</v>
       </c>
       <c r="J98" t="n">
-        <v>18.2423</v>
+        <v>31.1818</v>
       </c>
       <c r="K98" t="n">
-        <v>2.13483</v>
+        <v>3.70078</v>
       </c>
       <c r="L98" t="n">
-        <v>20.3772</v>
+        <v>34.8826</v>
       </c>
     </row>
     <row r="99">
@@ -4635,16 +4635,16 @@
         <v>1e-05</v>
       </c>
       <c r="I99" t="n">
-        <v>1e-05</v>
+        <v>40</v>
       </c>
       <c r="J99" t="n">
-        <v>0.375599</v>
+        <v>0.645405</v>
       </c>
       <c r="K99" t="n">
-        <v>5.23841</v>
+        <v>11.7059</v>
       </c>
       <c r="L99" t="n">
-        <v>5.61401</v>
+        <v>12.3513</v>
       </c>
     </row>
     <row r="100">
@@ -4676,13 +4676,13 @@
         <v>0</v>
       </c>
       <c r="J100" t="n">
-        <v>15.4838</v>
+        <v>26.818</v>
       </c>
       <c r="K100" t="n">
-        <v>12.9435</v>
+        <v>22.4196</v>
       </c>
       <c r="L100" t="n">
-        <v>2.5403</v>
+        <v>4.39842</v>
       </c>
     </row>
     <row r="101">
@@ -4714,13 +4714,13 @@
         <v>0</v>
       </c>
       <c r="J101" t="n">
-        <v>0.374437</v>
+        <v>0.64854</v>
       </c>
       <c r="K101" t="n">
-        <v>2.1642</v>
+        <v>3.74988</v>
       </c>
       <c r="L101" t="n">
-        <v>2.53863</v>
+        <v>4.39842</v>
       </c>
     </row>
     <row r="102">
@@ -4740,7 +4740,7 @@
         <v>1e-05</v>
       </c>
       <c r="F102" t="n">
-        <v>1e-05</v>
+        <v>40</v>
       </c>
       <c r="G102" t="n">
         <v>0</v>
@@ -4752,13 +4752,13 @@
         <v>0</v>
       </c>
       <c r="J102" t="n">
-        <v>22.57019</v>
+        <v>39.96676</v>
       </c>
       <c r="K102" t="n">
-        <v>5.97729</v>
+        <v>9.478928</v>
       </c>
       <c r="L102" t="n">
-        <v>16.5929</v>
+        <v>30.48783</v>
       </c>
     </row>
     <row r="103">
@@ -4778,7 +4778,7 @@
         <v>0</v>
       </c>
       <c r="F103" t="n">
-        <v>1e-05</v>
+        <v>40</v>
       </c>
       <c r="G103" t="n">
         <v>0</v>
@@ -4790,13 +4790,13 @@
         <v>0</v>
       </c>
       <c r="J103" t="n">
-        <v>18.26773</v>
+        <v>31.23011</v>
       </c>
       <c r="K103" t="n">
-        <v>2.134071</v>
+        <v>3.699468</v>
       </c>
       <c r="L103" t="n">
-        <v>20.4018</v>
+        <v>34.92957</v>
       </c>
     </row>
     <row r="104">
@@ -4816,7 +4816,7 @@
         <v>1e-05</v>
       </c>
       <c r="F104" t="n">
-        <v>1e-05</v>
+        <v>40</v>
       </c>
       <c r="G104" t="n">
         <v>0</v>
@@ -4828,13 +4828,13 @@
         <v>0</v>
       </c>
       <c r="J104" t="n">
-        <v>0.3755323</v>
+        <v>0.6451569</v>
       </c>
       <c r="K104" t="n">
-        <v>5.225646</v>
+        <v>11.69625</v>
       </c>
       <c r="L104" t="n">
-        <v>5.601179</v>
+        <v>12.3414</v>
       </c>
     </row>
     <row r="105">
@@ -4866,13 +4866,13 @@
         <v>0</v>
       </c>
       <c r="J105" t="n">
-        <v>15.54389</v>
+        <v>26.92205</v>
       </c>
       <c r="K105" t="n">
-        <v>13.00359</v>
+        <v>22.52363</v>
       </c>
       <c r="L105" t="n">
-        <v>2.540306</v>
+        <v>4.398416</v>
       </c>
     </row>
     <row r="106">
@@ -4904,13 +4904,13 @@
         <v>0</v>
       </c>
       <c r="J106" t="n">
-        <v>0.3744375</v>
+        <v>0.6485403</v>
       </c>
       <c r="K106" t="n">
-        <v>2.164197</v>
+        <v>3.749876</v>
       </c>
       <c r="L106" t="n">
-        <v>2.538634</v>
+        <v>4.398416</v>
       </c>
     </row>
     <row r="107">
@@ -4939,16 +4939,16 @@
         <v>1e-05</v>
       </c>
       <c r="I107" t="n">
-        <v>1e-05</v>
+        <v>40</v>
       </c>
       <c r="J107" t="n">
-        <v>22.50333</v>
+        <v>39.84625</v>
       </c>
       <c r="K107" t="n">
-        <v>5.924021</v>
+        <v>9.391360000000001</v>
       </c>
       <c r="L107" t="n">
-        <v>16.5793</v>
+        <v>30.45489</v>
       </c>
     </row>
     <row r="108">
@@ -4977,16 +4977,16 @@
         <v>0</v>
       </c>
       <c r="I108" t="n">
-        <v>1e-05</v>
+        <v>40</v>
       </c>
       <c r="J108" t="n">
-        <v>18.24234</v>
+        <v>31.18181</v>
       </c>
       <c r="K108" t="n">
-        <v>2.134827</v>
+        <v>3.700776</v>
       </c>
       <c r="L108" t="n">
-        <v>20.37717</v>
+        <v>34.88259</v>
       </c>
     </row>
     <row r="109">
@@ -5015,16 +5015,16 @@
         <v>1e-05</v>
       </c>
       <c r="I109" t="n">
-        <v>1e-05</v>
+        <v>40</v>
       </c>
       <c r="J109" t="n">
-        <v>0.3755988</v>
+        <v>0.6454045</v>
       </c>
       <c r="K109" t="n">
-        <v>5.238411</v>
+        <v>11.70589</v>
       </c>
       <c r="L109" t="n">
-        <v>5.61401</v>
+        <v>12.35129</v>
       </c>
     </row>
     <row r="110">
@@ -5056,13 +5056,13 @@
         <v>0</v>
       </c>
       <c r="J110" t="n">
-        <v>15.48383</v>
+        <v>26.81801</v>
       </c>
       <c r="K110" t="n">
-        <v>12.94353</v>
+        <v>22.4196</v>
       </c>
       <c r="L110" t="n">
-        <v>2.540301</v>
+        <v>4.398416</v>
       </c>
     </row>
     <row r="111">
@@ -5094,13 +5094,13 @@
         <v>0</v>
       </c>
       <c r="J111" t="n">
-        <v>0.3744375</v>
+        <v>0.6485403</v>
       </c>
       <c r="K111" t="n">
-        <v>2.164197</v>
+        <v>3.749876</v>
       </c>
       <c r="L111" t="n">
-        <v>2.538634</v>
+        <v>4.398416</v>
       </c>
     </row>
   </sheetData>
@@ -5201,7 +5201,7 @@
         <v>1e-05</v>
       </c>
       <c r="F2" t="n">
-        <v>1e-05</v>
+        <v>40</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -5213,13 +5213,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>22.5701</v>
+        <v>39.9665</v>
       </c>
       <c r="K2" t="n">
-        <v>5.97719</v>
+        <v>9.478770000000001</v>
       </c>
       <c r="L2" t="n">
-        <v>16.5929</v>
+        <v>30.4878</v>
       </c>
     </row>
     <row r="3">
@@ -5239,7 +5239,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>1e-05</v>
+        <v>40</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -5251,13 +5251,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>18.2666</v>
+        <v>31.23</v>
       </c>
       <c r="K3" t="n">
-        <v>2.13613</v>
+        <v>3.69947</v>
       </c>
       <c r="L3" t="n">
-        <v>20.4028</v>
+        <v>34.9295</v>
       </c>
     </row>
     <row r="4">
@@ -5277,7 +5277,7 @@
         <v>1e-05</v>
       </c>
       <c r="F4" t="n">
-        <v>1e-05</v>
+        <v>40</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -5289,13 +5289,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0.38152</v>
+        <v>0.645158</v>
       </c>
       <c r="K4" t="n">
-        <v>5.2227</v>
+        <v>11.6963</v>
       </c>
       <c r="L4" t="n">
-        <v>5.6042</v>
+        <v>12.3414</v>
       </c>
     </row>
     <row r="5">
@@ -5327,13 +5327,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>15.5433</v>
+        <v>26.9219</v>
       </c>
       <c r="K5" t="n">
-        <v>13.0039</v>
+        <v>22.5234</v>
       </c>
       <c r="L5" t="n">
-        <v>2.53943</v>
+        <v>4.39842</v>
       </c>
     </row>
     <row r="6">
@@ -5365,13 +5365,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.38034</v>
+        <v>0.64854</v>
       </c>
       <c r="K6" t="n">
-        <v>2.1624</v>
+        <v>3.7499</v>
       </c>
       <c r="L6" t="n">
-        <v>2.5428</v>
+        <v>4.3984</v>
       </c>
     </row>
     <row r="7">
@@ -5400,16 +5400,16 @@
         <v>1e-05</v>
       </c>
       <c r="I7" t="n">
-        <v>1e-05</v>
+        <v>40</v>
       </c>
       <c r="J7" t="n">
-        <v>22.57</v>
+        <v>39.9664</v>
       </c>
       <c r="K7" t="n">
-        <v>5.97714</v>
+        <v>9.478680000000001</v>
       </c>
       <c r="L7" t="n">
-        <v>16.5929</v>
+        <v>30.4877</v>
       </c>
     </row>
     <row r="8">
@@ -5438,16 +5438,16 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>1e-05</v>
+        <v>40</v>
       </c>
       <c r="J8" t="n">
-        <v>18.2666</v>
+        <v>31.23</v>
       </c>
       <c r="K8" t="n">
-        <v>2.13613</v>
+        <v>3.69948</v>
       </c>
       <c r="L8" t="n">
-        <v>20.4027</v>
+        <v>34.9294</v>
       </c>
     </row>
     <row r="9">
@@ -5476,16 +5476,16 @@
         <v>1e-05</v>
       </c>
       <c r="I9" t="n">
-        <v>1e-05</v>
+        <v>40</v>
       </c>
       <c r="J9" t="n">
-        <v>0.38152</v>
+        <v>0.645158</v>
       </c>
       <c r="K9" t="n">
-        <v>5.2227</v>
+        <v>11.6963</v>
       </c>
       <c r="L9" t="n">
-        <v>5.6042</v>
+        <v>12.3414</v>
       </c>
     </row>
     <row r="10">
@@ -5517,13 +5517,13 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>15.5433</v>
+        <v>26.9218</v>
       </c>
       <c r="K10" t="n">
-        <v>13.0039</v>
+        <v>22.5233</v>
       </c>
       <c r="L10" t="n">
-        <v>2.53943</v>
+        <v>4.39842</v>
       </c>
     </row>
     <row r="11">
@@ -5555,13 +5555,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0.38034</v>
+        <v>0.64854</v>
       </c>
       <c r="K11" t="n">
-        <v>2.1624</v>
+        <v>3.7499</v>
       </c>
       <c r="L11" t="n">
-        <v>2.5428</v>
+        <v>4.3984</v>
       </c>
     </row>
     <row r="12">
@@ -5581,7 +5581,7 @@
         <v>1e-05</v>
       </c>
       <c r="F12" t="n">
-        <v>1e-05</v>
+        <v>40</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -5593,13 +5593,13 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>22.5701</v>
+        <v>39.9665</v>
       </c>
       <c r="K12" t="n">
-        <v>5.97719</v>
+        <v>9.478770000000001</v>
       </c>
       <c r="L12" t="n">
-        <v>16.5929</v>
+        <v>30.4878</v>
       </c>
     </row>
     <row r="13">
@@ -5619,7 +5619,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>1e-05</v>
+        <v>40</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -5631,13 +5631,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>18.2666</v>
+        <v>31.23</v>
       </c>
       <c r="K13" t="n">
-        <v>2.13613</v>
+        <v>3.69947</v>
       </c>
       <c r="L13" t="n">
-        <v>20.4028</v>
+        <v>34.9295</v>
       </c>
     </row>
     <row r="14">
@@ -5657,7 +5657,7 @@
         <v>1e-05</v>
       </c>
       <c r="F14" t="n">
-        <v>1e-05</v>
+        <v>40</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -5669,13 +5669,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0.381516</v>
+        <v>0.645158</v>
       </c>
       <c r="K14" t="n">
-        <v>5.22268</v>
+        <v>11.6963</v>
       </c>
       <c r="L14" t="n">
-        <v>5.60419</v>
+        <v>12.3414</v>
       </c>
     </row>
     <row r="15">
@@ -5707,13 +5707,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>15.5433</v>
+        <v>26.9219</v>
       </c>
       <c r="K15" t="n">
-        <v>13.0039</v>
+        <v>22.5234</v>
       </c>
       <c r="L15" t="n">
-        <v>2.53943</v>
+        <v>4.39842</v>
       </c>
     </row>
     <row r="16">
@@ -5745,13 +5745,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0.380341</v>
+        <v>0.64854</v>
       </c>
       <c r="K16" t="n">
-        <v>2.16243</v>
+        <v>3.74988</v>
       </c>
       <c r="L16" t="n">
-        <v>2.54277</v>
+        <v>4.39842</v>
       </c>
     </row>
     <row r="17">
@@ -5780,16 +5780,16 @@
         <v>1e-05</v>
       </c>
       <c r="I17" t="n">
-        <v>1e-05</v>
+        <v>40</v>
       </c>
       <c r="J17" t="n">
-        <v>22.5634</v>
+        <v>39.9545</v>
       </c>
       <c r="K17" t="n">
-        <v>5.97187</v>
+        <v>9.47001</v>
       </c>
       <c r="L17" t="n">
-        <v>16.5915</v>
+        <v>30.4845</v>
       </c>
     </row>
     <row r="18">
@@ -5818,16 +5818,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1e-05</v>
+        <v>40</v>
       </c>
       <c r="J18" t="n">
-        <v>18.2641</v>
+        <v>31.2252</v>
       </c>
       <c r="K18" t="n">
-        <v>2.1362</v>
+        <v>3.6996</v>
       </c>
       <c r="L18" t="n">
-        <v>20.4003</v>
+        <v>34.9248</v>
       </c>
     </row>
     <row r="19">
@@ -5856,16 +5856,16 @@
         <v>1e-05</v>
       </c>
       <c r="I19" t="n">
-        <v>1e-05</v>
+        <v>40</v>
       </c>
       <c r="J19" t="n">
-        <v>0.381522</v>
+        <v>0.645183</v>
       </c>
       <c r="K19" t="n">
-        <v>5.22396</v>
+        <v>11.6972</v>
       </c>
       <c r="L19" t="n">
-        <v>5.60548</v>
+        <v>12.3424</v>
       </c>
     </row>
     <row r="20">
@@ -5897,13 +5897,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>15.5373</v>
+        <v>26.9115</v>
       </c>
       <c r="K20" t="n">
-        <v>12.9979</v>
+        <v>22.513</v>
       </c>
       <c r="L20" t="n">
-        <v>2.53943</v>
+        <v>4.39842</v>
       </c>
     </row>
     <row r="21">
@@ -5935,13 +5935,13 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.380341</v>
+        <v>0.64854</v>
       </c>
       <c r="K21" t="n">
-        <v>2.16243</v>
+        <v>3.74988</v>
       </c>
       <c r="L21" t="n">
-        <v>2.54277</v>
+        <v>4.39842</v>
       </c>
     </row>
     <row r="22">
@@ -5961,7 +5961,7 @@
         <v>1e-05</v>
       </c>
       <c r="F22" t="n">
-        <v>1e-05</v>
+        <v>40</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -5973,13 +5973,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>22.5701</v>
+        <v>39.9665</v>
       </c>
       <c r="K22" t="n">
-        <v>5.97719</v>
+        <v>9.478770000000001</v>
       </c>
       <c r="L22" t="n">
-        <v>16.5929</v>
+        <v>30.4878</v>
       </c>
     </row>
     <row r="23">
@@ -5999,7 +5999,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>1e-05</v>
+        <v>40</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -6011,13 +6011,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>18.2666</v>
+        <v>31.23</v>
       </c>
       <c r="K23" t="n">
-        <v>2.13613</v>
+        <v>3.69947</v>
       </c>
       <c r="L23" t="n">
-        <v>20.4028</v>
+        <v>34.9295</v>
       </c>
     </row>
     <row r="24">
@@ -6037,7 +6037,7 @@
         <v>1e-05</v>
       </c>
       <c r="F24" t="n">
-        <v>1e-05</v>
+        <v>40</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -6049,13 +6049,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0.381516</v>
+        <v>0.645158</v>
       </c>
       <c r="K24" t="n">
-        <v>5.22268</v>
+        <v>11.6963</v>
       </c>
       <c r="L24" t="n">
-        <v>5.60419</v>
+        <v>12.3414</v>
       </c>
     </row>
     <row r="25">
@@ -6087,13 +6087,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>15.5433</v>
+        <v>26.9219</v>
       </c>
       <c r="K25" t="n">
-        <v>13.0039</v>
+        <v>22.5234</v>
       </c>
       <c r="L25" t="n">
-        <v>2.53943</v>
+        <v>4.39842</v>
       </c>
     </row>
     <row r="26">
@@ -6125,13 +6125,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0.380341</v>
+        <v>0.64854</v>
       </c>
       <c r="K26" t="n">
-        <v>2.16243</v>
+        <v>3.74988</v>
       </c>
       <c r="L26" t="n">
-        <v>2.54277</v>
+        <v>4.39842</v>
       </c>
     </row>
     <row r="27">
@@ -6160,16 +6160,16 @@
         <v>1e-05</v>
       </c>
       <c r="I27" t="n">
-        <v>1e-05</v>
+        <v>40</v>
       </c>
       <c r="J27" t="n">
-        <v>22.5567</v>
+        <v>39.9424</v>
       </c>
       <c r="K27" t="n">
-        <v>5.96654</v>
+        <v>9.461259999999999</v>
       </c>
       <c r="L27" t="n">
-        <v>16.5902</v>
+        <v>30.4812</v>
       </c>
     </row>
     <row r="28">
@@ -6198,16 +6198,16 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>1e-05</v>
+        <v>40</v>
       </c>
       <c r="J28" t="n">
-        <v>18.2616</v>
+        <v>31.2204</v>
       </c>
       <c r="K28" t="n">
-        <v>2.13628</v>
+        <v>3.69973</v>
       </c>
       <c r="L28" t="n">
-        <v>20.3978</v>
+        <v>34.9201</v>
       </c>
     </row>
     <row r="29">
@@ -6236,16 +6236,16 @@
         <v>1e-05</v>
       </c>
       <c r="I29" t="n">
-        <v>1e-05</v>
+        <v>40</v>
       </c>
       <c r="J29" t="n">
-        <v>0.381529</v>
+        <v>0.645207</v>
       </c>
       <c r="K29" t="n">
-        <v>5.22523</v>
+        <v>11.6982</v>
       </c>
       <c r="L29" t="n">
-        <v>5.60676</v>
+        <v>12.3434</v>
       </c>
     </row>
     <row r="30">
@@ -6277,13 +6277,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>15.5313</v>
+        <v>26.9011</v>
       </c>
       <c r="K30" t="n">
-        <v>12.9919</v>
+        <v>22.5026</v>
       </c>
       <c r="L30" t="n">
-        <v>2.53943</v>
+        <v>4.39842</v>
       </c>
     </row>
     <row r="31">
@@ -6315,13 +6315,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0.380341</v>
+        <v>0.64854</v>
       </c>
       <c r="K31" t="n">
-        <v>2.16243</v>
+        <v>3.74988</v>
       </c>
       <c r="L31" t="n">
-        <v>2.54277</v>
+        <v>4.39842</v>
       </c>
     </row>
     <row r="32">
@@ -6341,7 +6341,7 @@
         <v>1e-05</v>
       </c>
       <c r="F32" t="n">
-        <v>1e-05</v>
+        <v>40</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -6353,13 +6353,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>22.5701</v>
+        <v>39.9665</v>
       </c>
       <c r="K32" t="n">
-        <v>5.97719</v>
+        <v>9.478770000000001</v>
       </c>
       <c r="L32" t="n">
-        <v>16.5929</v>
+        <v>30.4878</v>
       </c>
     </row>
     <row r="33">
@@ -6379,7 +6379,7 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>1e-05</v>
+        <v>40</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -6391,13 +6391,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>18.2666</v>
+        <v>31.23</v>
       </c>
       <c r="K33" t="n">
-        <v>2.13613</v>
+        <v>3.69947</v>
       </c>
       <c r="L33" t="n">
-        <v>20.4028</v>
+        <v>34.9295</v>
       </c>
     </row>
     <row r="34">
@@ -6417,7 +6417,7 @@
         <v>1e-05</v>
       </c>
       <c r="F34" t="n">
-        <v>1e-05</v>
+        <v>40</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -6429,13 +6429,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0.381516</v>
+        <v>0.645158</v>
       </c>
       <c r="K34" t="n">
-        <v>5.22268</v>
+        <v>11.6963</v>
       </c>
       <c r="L34" t="n">
-        <v>5.60419</v>
+        <v>12.3414</v>
       </c>
     </row>
     <row r="35">
@@ -6467,13 +6467,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>15.5433</v>
+        <v>26.9219</v>
       </c>
       <c r="K35" t="n">
-        <v>13.0039</v>
+        <v>22.5234</v>
       </c>
       <c r="L35" t="n">
-        <v>2.53943</v>
+        <v>4.39842</v>
       </c>
     </row>
     <row r="36">
@@ -6505,13 +6505,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.380341</v>
+        <v>0.64854</v>
       </c>
       <c r="K36" t="n">
-        <v>2.16243</v>
+        <v>3.74988</v>
       </c>
       <c r="L36" t="n">
-        <v>2.54277</v>
+        <v>4.39842</v>
       </c>
     </row>
     <row r="37">
@@ -6540,16 +6540,16 @@
         <v>1e-05</v>
       </c>
       <c r="I37" t="n">
-        <v>1e-05</v>
+        <v>40</v>
       </c>
       <c r="J37" t="n">
-        <v>22.55</v>
+        <v>39.9304</v>
       </c>
       <c r="K37" t="n">
-        <v>5.96122</v>
+        <v>9.45251</v>
       </c>
       <c r="L37" t="n">
-        <v>16.5888</v>
+        <v>30.4779</v>
       </c>
     </row>
     <row r="38">
@@ -6578,16 +6578,16 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1e-05</v>
+        <v>40</v>
       </c>
       <c r="J38" t="n">
-        <v>18.259</v>
+        <v>31.2155</v>
       </c>
       <c r="K38" t="n">
-        <v>2.13635</v>
+        <v>3.69986</v>
       </c>
       <c r="L38" t="n">
-        <v>20.3954</v>
+        <v>34.9154</v>
       </c>
     </row>
     <row r="39">
@@ -6616,16 +6616,16 @@
         <v>1e-05</v>
       </c>
       <c r="I39" t="n">
-        <v>1e-05</v>
+        <v>40</v>
       </c>
       <c r="J39" t="n">
-        <v>0.381535</v>
+        <v>0.645232</v>
       </c>
       <c r="K39" t="n">
-        <v>5.22651</v>
+        <v>11.6992</v>
       </c>
       <c r="L39" t="n">
-        <v>5.60805</v>
+        <v>12.3444</v>
       </c>
     </row>
     <row r="40">
@@ -6657,13 +6657,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>15.5253</v>
+        <v>26.8907</v>
       </c>
       <c r="K40" t="n">
-        <v>12.9859</v>
+        <v>22.4923</v>
       </c>
       <c r="L40" t="n">
-        <v>2.53943</v>
+        <v>4.39842</v>
       </c>
     </row>
     <row r="41">
@@ -6695,13 +6695,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0.380341</v>
+        <v>0.64854</v>
       </c>
       <c r="K41" t="n">
-        <v>2.16243</v>
+        <v>3.74988</v>
       </c>
       <c r="L41" t="n">
-        <v>2.54277</v>
+        <v>4.39842</v>
       </c>
     </row>
     <row r="42">
@@ -6721,7 +6721,7 @@
         <v>1e-05</v>
       </c>
       <c r="F42" t="n">
-        <v>1e-05</v>
+        <v>40</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -6733,13 +6733,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>22.5701</v>
+        <v>39.9665</v>
       </c>
       <c r="K42" t="n">
-        <v>5.97719</v>
+        <v>9.478770000000001</v>
       </c>
       <c r="L42" t="n">
-        <v>16.5929</v>
+        <v>30.4878</v>
       </c>
     </row>
     <row r="43">
@@ -6759,7 +6759,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>1e-05</v>
+        <v>40</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -6771,13 +6771,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>18.2666</v>
+        <v>31.23</v>
       </c>
       <c r="K43" t="n">
-        <v>2.13613</v>
+        <v>3.69947</v>
       </c>
       <c r="L43" t="n">
-        <v>20.4028</v>
+        <v>34.9295</v>
       </c>
     </row>
     <row r="44">
@@ -6797,7 +6797,7 @@
         <v>1e-05</v>
       </c>
       <c r="F44" t="n">
-        <v>1e-05</v>
+        <v>40</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -6809,13 +6809,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0.381516</v>
+        <v>0.645158</v>
       </c>
       <c r="K44" t="n">
-        <v>5.22268</v>
+        <v>11.6963</v>
       </c>
       <c r="L44" t="n">
-        <v>5.60419</v>
+        <v>12.3414</v>
       </c>
     </row>
     <row r="45">
@@ -6847,13 +6847,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>15.5433</v>
+        <v>26.9219</v>
       </c>
       <c r="K45" t="n">
-        <v>13.0039</v>
+        <v>22.5234</v>
       </c>
       <c r="L45" t="n">
-        <v>2.53943</v>
+        <v>4.39842</v>
       </c>
     </row>
     <row r="46">
@@ -6885,13 +6885,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0.380341</v>
+        <v>0.64854</v>
       </c>
       <c r="K46" t="n">
-        <v>2.16243</v>
+        <v>3.74988</v>
       </c>
       <c r="L46" t="n">
-        <v>2.54277</v>
+        <v>4.39842</v>
       </c>
     </row>
     <row r="47">
@@ -6920,16 +6920,16 @@
         <v>1e-05</v>
       </c>
       <c r="I47" t="n">
-        <v>1e-05</v>
+        <v>40</v>
       </c>
       <c r="J47" t="n">
-        <v>22.5433</v>
+        <v>39.9184</v>
       </c>
       <c r="K47" t="n">
-        <v>5.9559</v>
+        <v>9.443770000000001</v>
       </c>
       <c r="L47" t="n">
-        <v>16.5874</v>
+        <v>30.4746</v>
       </c>
     </row>
     <row r="48">
@@ -6958,16 +6958,16 @@
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>1e-05</v>
+        <v>40</v>
       </c>
       <c r="J48" t="n">
-        <v>18.2565</v>
+        <v>31.2107</v>
       </c>
       <c r="K48" t="n">
-        <v>2.13643</v>
+        <v>3.7</v>
       </c>
       <c r="L48" t="n">
-        <v>20.3929</v>
+        <v>34.9107</v>
       </c>
     </row>
     <row r="49">
@@ -6996,16 +6996,16 @@
         <v>1e-05</v>
       </c>
       <c r="I49" t="n">
-        <v>1e-05</v>
+        <v>40</v>
       </c>
       <c r="J49" t="n">
-        <v>0.381542</v>
+        <v>0.645257</v>
       </c>
       <c r="K49" t="n">
-        <v>5.22779</v>
+        <v>11.7001</v>
       </c>
       <c r="L49" t="n">
-        <v>5.60933</v>
+        <v>12.3454</v>
       </c>
     </row>
     <row r="50">
@@ -7037,13 +7037,13 @@
         <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>15.5193</v>
+        <v>26.8803</v>
       </c>
       <c r="K50" t="n">
-        <v>12.9799</v>
+        <v>22.4819</v>
       </c>
       <c r="L50" t="n">
-        <v>2.53943</v>
+        <v>4.39842</v>
       </c>
     </row>
     <row r="51">
@@ -7075,13 +7075,13 @@
         <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>0.380341</v>
+        <v>0.64854</v>
       </c>
       <c r="K51" t="n">
-        <v>2.16243</v>
+        <v>3.74988</v>
       </c>
       <c r="L51" t="n">
-        <v>2.54277</v>
+        <v>4.39842</v>
       </c>
     </row>
     <row r="52">
@@ -7101,7 +7101,7 @@
         <v>1e-05</v>
       </c>
       <c r="F52" t="n">
-        <v>1e-05</v>
+        <v>40</v>
       </c>
       <c r="G52" t="n">
         <v>0</v>
@@ -7113,13 +7113,13 @@
         <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>22.5701</v>
+        <v>39.9665</v>
       </c>
       <c r="K52" t="n">
-        <v>5.97719</v>
+        <v>9.478770000000001</v>
       </c>
       <c r="L52" t="n">
-        <v>16.5929</v>
+        <v>30.4878</v>
       </c>
     </row>
     <row r="53">
@@ -7139,7 +7139,7 @@
         <v>0</v>
       </c>
       <c r="F53" t="n">
-        <v>1e-05</v>
+        <v>40</v>
       </c>
       <c r="G53" t="n">
         <v>0</v>
@@ -7151,13 +7151,13 @@
         <v>0</v>
       </c>
       <c r="J53" t="n">
-        <v>18.2666</v>
+        <v>31.23</v>
       </c>
       <c r="K53" t="n">
-        <v>2.13613</v>
+        <v>3.69947</v>
       </c>
       <c r="L53" t="n">
-        <v>20.4028</v>
+        <v>34.9295</v>
       </c>
     </row>
     <row r="54">
@@ -7177,7 +7177,7 @@
         <v>1e-05</v>
       </c>
       <c r="F54" t="n">
-        <v>1e-05</v>
+        <v>40</v>
       </c>
       <c r="G54" t="n">
         <v>0</v>
@@ -7189,13 +7189,13 @@
         <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>0.381516</v>
+        <v>0.645158</v>
       </c>
       <c r="K54" t="n">
-        <v>5.22268</v>
+        <v>11.6963</v>
       </c>
       <c r="L54" t="n">
-        <v>5.60419</v>
+        <v>12.3414</v>
       </c>
     </row>
     <row r="55">
@@ -7227,13 +7227,13 @@
         <v>0</v>
       </c>
       <c r="J55" t="n">
-        <v>15.5433</v>
+        <v>26.9219</v>
       </c>
       <c r="K55" t="n">
-        <v>13.0039</v>
+        <v>22.5234</v>
       </c>
       <c r="L55" t="n">
-        <v>2.53943</v>
+        <v>4.39842</v>
       </c>
     </row>
     <row r="56">
@@ -7265,13 +7265,13 @@
         <v>0</v>
       </c>
       <c r="J56" t="n">
-        <v>0.380341</v>
+        <v>0.64854</v>
       </c>
       <c r="K56" t="n">
-        <v>2.16243</v>
+        <v>3.74988</v>
       </c>
       <c r="L56" t="n">
-        <v>2.54277</v>
+        <v>4.39842</v>
       </c>
     </row>
     <row r="57">
@@ -7300,16 +7300,16 @@
         <v>1e-05</v>
       </c>
       <c r="I57" t="n">
-        <v>1e-05</v>
+        <v>40</v>
       </c>
       <c r="J57" t="n">
-        <v>22.5367</v>
+        <v>39.9063</v>
       </c>
       <c r="K57" t="n">
-        <v>5.95058</v>
+        <v>9.43502</v>
       </c>
       <c r="L57" t="n">
-        <v>16.5861</v>
+        <v>30.4713</v>
       </c>
     </row>
     <row r="58">
@@ -7338,16 +7338,16 @@
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>1e-05</v>
+        <v>40</v>
       </c>
       <c r="J58" t="n">
-        <v>18.254</v>
+        <v>31.2059</v>
       </c>
       <c r="K58" t="n">
-        <v>2.1365</v>
+        <v>3.70013</v>
       </c>
       <c r="L58" t="n">
-        <v>20.3905</v>
+        <v>34.906</v>
       </c>
     </row>
     <row r="59">
@@ -7376,16 +7376,16 @@
         <v>1e-05</v>
       </c>
       <c r="I59" t="n">
-        <v>1e-05</v>
+        <v>40</v>
       </c>
       <c r="J59" t="n">
-        <v>0.381549</v>
+        <v>0.645281</v>
       </c>
       <c r="K59" t="n">
-        <v>5.22906</v>
+        <v>11.7011</v>
       </c>
       <c r="L59" t="n">
-        <v>5.61061</v>
+        <v>12.3464</v>
       </c>
     </row>
     <row r="60">
@@ -7417,13 +7417,13 @@
         <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>15.5133</v>
+        <v>26.8699</v>
       </c>
       <c r="K60" t="n">
-        <v>12.9739</v>
+        <v>22.4715</v>
       </c>
       <c r="L60" t="n">
-        <v>2.53943</v>
+        <v>4.39842</v>
       </c>
     </row>
     <row r="61">
@@ -7455,13 +7455,13 @@
         <v>0</v>
       </c>
       <c r="J61" t="n">
-        <v>0.380341</v>
+        <v>0.64854</v>
       </c>
       <c r="K61" t="n">
-        <v>2.16243</v>
+        <v>3.74988</v>
       </c>
       <c r="L61" t="n">
-        <v>2.54277</v>
+        <v>4.39842</v>
       </c>
     </row>
     <row r="62">
@@ -7481,7 +7481,7 @@
         <v>1e-05</v>
       </c>
       <c r="F62" t="n">
-        <v>1e-05</v>
+        <v>40</v>
       </c>
       <c r="G62" t="n">
         <v>0</v>
@@ -7493,13 +7493,13 @@
         <v>0</v>
       </c>
       <c r="J62" t="n">
-        <v>22.5701</v>
+        <v>39.9665</v>
       </c>
       <c r="K62" t="n">
-        <v>5.97719</v>
+        <v>9.478770000000001</v>
       </c>
       <c r="L62" t="n">
-        <v>16.5929</v>
+        <v>30.4878</v>
       </c>
     </row>
     <row r="63">
@@ -7519,7 +7519,7 @@
         <v>0</v>
       </c>
       <c r="F63" t="n">
-        <v>1e-05</v>
+        <v>40</v>
       </c>
       <c r="G63" t="n">
         <v>0</v>
@@ -7531,13 +7531,13 @@
         <v>0</v>
       </c>
       <c r="J63" t="n">
-        <v>18.2666</v>
+        <v>31.23</v>
       </c>
       <c r="K63" t="n">
-        <v>2.13613</v>
+        <v>3.69947</v>
       </c>
       <c r="L63" t="n">
-        <v>20.4028</v>
+        <v>34.9295</v>
       </c>
     </row>
     <row r="64">
@@ -7557,7 +7557,7 @@
         <v>1e-05</v>
       </c>
       <c r="F64" t="n">
-        <v>1e-05</v>
+        <v>40</v>
       </c>
       <c r="G64" t="n">
         <v>0</v>
@@ -7569,13 +7569,13 @@
         <v>0</v>
       </c>
       <c r="J64" t="n">
-        <v>0.381516</v>
+        <v>0.645158</v>
       </c>
       <c r="K64" t="n">
-        <v>5.22268</v>
+        <v>11.6963</v>
       </c>
       <c r="L64" t="n">
-        <v>5.60419</v>
+        <v>12.3414</v>
       </c>
     </row>
     <row r="65">
@@ -7607,13 +7607,13 @@
         <v>0</v>
       </c>
       <c r="J65" t="n">
-        <v>15.5433</v>
+        <v>26.9219</v>
       </c>
       <c r="K65" t="n">
-        <v>13.0039</v>
+        <v>22.5234</v>
       </c>
       <c r="L65" t="n">
-        <v>2.53943</v>
+        <v>4.39842</v>
       </c>
     </row>
     <row r="66">
@@ -7645,13 +7645,13 @@
         <v>0</v>
       </c>
       <c r="J66" t="n">
-        <v>0.380341</v>
+        <v>0.64854</v>
       </c>
       <c r="K66" t="n">
-        <v>2.16243</v>
+        <v>3.74988</v>
       </c>
       <c r="L66" t="n">
-        <v>2.54277</v>
+        <v>4.39842</v>
       </c>
     </row>
     <row r="67">
@@ -7680,16 +7680,16 @@
         <v>1e-05</v>
       </c>
       <c r="I67" t="n">
-        <v>1e-05</v>
+        <v>40</v>
       </c>
       <c r="J67" t="n">
-        <v>22.53</v>
+        <v>39.8943</v>
       </c>
       <c r="K67" t="n">
-        <v>5.94526</v>
+        <v>9.42628</v>
       </c>
       <c r="L67" t="n">
-        <v>16.5847</v>
+        <v>30.468</v>
       </c>
     </row>
     <row r="68">
@@ -7718,16 +7718,16 @@
         <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>1e-05</v>
+        <v>40</v>
       </c>
       <c r="J68" t="n">
-        <v>18.2514</v>
+        <v>31.2011</v>
       </c>
       <c r="K68" t="n">
-        <v>2.13658</v>
+        <v>3.70026</v>
       </c>
       <c r="L68" t="n">
-        <v>20.388</v>
+        <v>34.9013</v>
       </c>
     </row>
     <row r="69">
@@ -7756,16 +7756,16 @@
         <v>1e-05</v>
       </c>
       <c r="I69" t="n">
-        <v>1e-05</v>
+        <v>40</v>
       </c>
       <c r="J69" t="n">
-        <v>0.381555</v>
+        <v>0.645306</v>
       </c>
       <c r="K69" t="n">
-        <v>5.23033</v>
+        <v>11.7021</v>
       </c>
       <c r="L69" t="n">
-        <v>5.61189</v>
+        <v>12.3474</v>
       </c>
     </row>
     <row r="70">
@@ -7797,13 +7797,13 @@
         <v>0</v>
       </c>
       <c r="J70" t="n">
-        <v>15.5073</v>
+        <v>26.8595</v>
       </c>
       <c r="K70" t="n">
-        <v>12.9679</v>
+        <v>22.4611</v>
       </c>
       <c r="L70" t="n">
-        <v>2.53943</v>
+        <v>4.39842</v>
       </c>
     </row>
     <row r="71">
@@ -7835,13 +7835,13 @@
         <v>0</v>
       </c>
       <c r="J71" t="n">
-        <v>0.380341</v>
+        <v>0.64854</v>
       </c>
       <c r="K71" t="n">
-        <v>2.16243</v>
+        <v>3.74988</v>
       </c>
       <c r="L71" t="n">
-        <v>2.54277</v>
+        <v>4.39842</v>
       </c>
     </row>
     <row r="72">
@@ -7861,7 +7861,7 @@
         <v>1e-05</v>
       </c>
       <c r="F72" t="n">
-        <v>1e-05</v>
+        <v>40</v>
       </c>
       <c r="G72" t="n">
         <v>0</v>
@@ -7873,13 +7873,13 @@
         <v>0</v>
       </c>
       <c r="J72" t="n">
-        <v>22.5701</v>
+        <v>39.9665</v>
       </c>
       <c r="K72" t="n">
-        <v>5.97719</v>
+        <v>9.478770000000001</v>
       </c>
       <c r="L72" t="n">
-        <v>16.5929</v>
+        <v>30.4878</v>
       </c>
     </row>
     <row r="73">
@@ -7899,7 +7899,7 @@
         <v>0</v>
       </c>
       <c r="F73" t="n">
-        <v>1e-05</v>
+        <v>40</v>
       </c>
       <c r="G73" t="n">
         <v>0</v>
@@ -7911,13 +7911,13 @@
         <v>0</v>
       </c>
       <c r="J73" t="n">
-        <v>18.2666</v>
+        <v>31.23</v>
       </c>
       <c r="K73" t="n">
-        <v>2.13613</v>
+        <v>3.69947</v>
       </c>
       <c r="L73" t="n">
-        <v>20.4028</v>
+        <v>34.9295</v>
       </c>
     </row>
     <row r="74">
@@ -7937,7 +7937,7 @@
         <v>1e-05</v>
       </c>
       <c r="F74" t="n">
-        <v>1e-05</v>
+        <v>40</v>
       </c>
       <c r="G74" t="n">
         <v>0</v>
@@ -7949,13 +7949,13 @@
         <v>0</v>
       </c>
       <c r="J74" t="n">
-        <v>0.381516</v>
+        <v>0.645158</v>
       </c>
       <c r="K74" t="n">
-        <v>5.22268</v>
+        <v>11.6963</v>
       </c>
       <c r="L74" t="n">
-        <v>5.60419</v>
+        <v>12.3414</v>
       </c>
     </row>
     <row r="75">
@@ -7987,13 +7987,13 @@
         <v>0</v>
       </c>
       <c r="J75" t="n">
-        <v>15.5433</v>
+        <v>26.9219</v>
       </c>
       <c r="K75" t="n">
-        <v>13.0039</v>
+        <v>22.5234</v>
       </c>
       <c r="L75" t="n">
-        <v>2.53943</v>
+        <v>4.39842</v>
       </c>
     </row>
     <row r="76">
@@ -8025,13 +8025,13 @@
         <v>0</v>
       </c>
       <c r="J76" t="n">
-        <v>0.380341</v>
+        <v>0.64854</v>
       </c>
       <c r="K76" t="n">
-        <v>2.16243</v>
+        <v>3.74988</v>
       </c>
       <c r="L76" t="n">
-        <v>2.54277</v>
+        <v>4.39842</v>
       </c>
     </row>
     <row r="77">
@@ -8060,16 +8060,16 @@
         <v>1e-05</v>
       </c>
       <c r="I77" t="n">
-        <v>1e-05</v>
+        <v>40</v>
       </c>
       <c r="J77" t="n">
-        <v>22.5233</v>
+        <v>39.8823</v>
       </c>
       <c r="K77" t="n">
-        <v>5.93995</v>
+        <v>9.41755</v>
       </c>
       <c r="L77" t="n">
-        <v>16.5834</v>
+        <v>30.4647</v>
       </c>
     </row>
     <row r="78">
@@ -8098,16 +8098,16 @@
         <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>1e-05</v>
+        <v>40</v>
       </c>
       <c r="J78" t="n">
-        <v>18.2489</v>
+        <v>31.1963</v>
       </c>
       <c r="K78" t="n">
-        <v>2.13665</v>
+        <v>3.70039</v>
       </c>
       <c r="L78" t="n">
-        <v>20.3855</v>
+        <v>34.8966</v>
       </c>
     </row>
     <row r="79">
@@ -8136,16 +8136,16 @@
         <v>1e-05</v>
       </c>
       <c r="I79" t="n">
-        <v>1e-05</v>
+        <v>40</v>
       </c>
       <c r="J79" t="n">
-        <v>0.381562</v>
+        <v>0.645331</v>
       </c>
       <c r="K79" t="n">
-        <v>5.23161</v>
+        <v>11.703</v>
       </c>
       <c r="L79" t="n">
-        <v>5.61317</v>
+        <v>12.3483</v>
       </c>
     </row>
     <row r="80">
@@ -8177,13 +8177,13 @@
         <v>0</v>
       </c>
       <c r="J80" t="n">
-        <v>15.5014</v>
+        <v>26.8491</v>
       </c>
       <c r="K80" t="n">
-        <v>12.9619</v>
+        <v>22.4507</v>
       </c>
       <c r="L80" t="n">
-        <v>2.53943</v>
+        <v>4.39842</v>
       </c>
     </row>
     <row r="81">
@@ -8215,13 +8215,13 @@
         <v>0</v>
       </c>
       <c r="J81" t="n">
-        <v>0.380341</v>
+        <v>0.64854</v>
       </c>
       <c r="K81" t="n">
-        <v>2.16243</v>
+        <v>3.74988</v>
       </c>
       <c r="L81" t="n">
-        <v>2.54277</v>
+        <v>4.39842</v>
       </c>
     </row>
     <row r="82">
@@ -8241,7 +8241,7 @@
         <v>1e-05</v>
       </c>
       <c r="F82" t="n">
-        <v>1e-05</v>
+        <v>40</v>
       </c>
       <c r="G82" t="n">
         <v>0</v>
@@ -8253,13 +8253,13 @@
         <v>0</v>
       </c>
       <c r="J82" t="n">
-        <v>22.5701</v>
+        <v>39.9665</v>
       </c>
       <c r="K82" t="n">
-        <v>5.97719</v>
+        <v>9.478770000000001</v>
       </c>
       <c r="L82" t="n">
-        <v>16.5929</v>
+        <v>30.4878</v>
       </c>
     </row>
     <row r="83">
@@ -8279,7 +8279,7 @@
         <v>0</v>
       </c>
       <c r="F83" t="n">
-        <v>1e-05</v>
+        <v>40</v>
       </c>
       <c r="G83" t="n">
         <v>0</v>
@@ -8291,13 +8291,13 @@
         <v>0</v>
       </c>
       <c r="J83" t="n">
-        <v>18.2666</v>
+        <v>31.23</v>
       </c>
       <c r="K83" t="n">
-        <v>2.13613</v>
+        <v>3.69947</v>
       </c>
       <c r="L83" t="n">
-        <v>20.4028</v>
+        <v>34.9295</v>
       </c>
     </row>
     <row r="84">
@@ -8317,7 +8317,7 @@
         <v>1e-05</v>
       </c>
       <c r="F84" t="n">
-        <v>1e-05</v>
+        <v>40</v>
       </c>
       <c r="G84" t="n">
         <v>0</v>
@@ -8329,13 +8329,13 @@
         <v>0</v>
       </c>
       <c r="J84" t="n">
-        <v>0.381516</v>
+        <v>0.645158</v>
       </c>
       <c r="K84" t="n">
-        <v>5.22268</v>
+        <v>11.6963</v>
       </c>
       <c r="L84" t="n">
-        <v>5.60419</v>
+        <v>12.3414</v>
       </c>
     </row>
     <row r="85">
@@ -8367,13 +8367,13 @@
         <v>0</v>
       </c>
       <c r="J85" t="n">
-        <v>15.5433</v>
+        <v>26.9219</v>
       </c>
       <c r="K85" t="n">
-        <v>13.0039</v>
+        <v>22.5234</v>
       </c>
       <c r="L85" t="n">
-        <v>2.53943</v>
+        <v>4.39842</v>
       </c>
     </row>
     <row r="86">
@@ -8405,13 +8405,13 @@
         <v>0</v>
       </c>
       <c r="J86" t="n">
-        <v>0.380341</v>
+        <v>0.64854</v>
       </c>
       <c r="K86" t="n">
-        <v>2.16243</v>
+        <v>3.74988</v>
       </c>
       <c r="L86" t="n">
-        <v>2.54277</v>
+        <v>4.39842</v>
       </c>
     </row>
     <row r="87">
@@ -8440,16 +8440,16 @@
         <v>1e-05</v>
       </c>
       <c r="I87" t="n">
-        <v>1e-05</v>
+        <v>40</v>
       </c>
       <c r="J87" t="n">
-        <v>22.5167</v>
+        <v>39.8703</v>
       </c>
       <c r="K87" t="n">
-        <v>5.93464</v>
+        <v>9.408810000000001</v>
       </c>
       <c r="L87" t="n">
-        <v>16.582</v>
+        <v>30.4615</v>
       </c>
     </row>
     <row r="88">
@@ -8478,16 +8478,16 @@
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>1e-05</v>
+        <v>40</v>
       </c>
       <c r="J88" t="n">
-        <v>18.2464</v>
+        <v>31.1914</v>
       </c>
       <c r="K88" t="n">
-        <v>2.13673</v>
+        <v>3.70052</v>
       </c>
       <c r="L88" t="n">
-        <v>20.3831</v>
+        <v>34.892</v>
       </c>
     </row>
     <row r="89">
@@ -8516,16 +8516,16 @@
         <v>1e-05</v>
       </c>
       <c r="I89" t="n">
-        <v>1e-05</v>
+        <v>40</v>
       </c>
       <c r="J89" t="n">
-        <v>0.381569</v>
+        <v>0.645355</v>
       </c>
       <c r="K89" t="n">
-        <v>5.23288</v>
+        <v>11.704</v>
       </c>
       <c r="L89" t="n">
-        <v>5.61445</v>
+        <v>12.3493</v>
       </c>
     </row>
     <row r="90">
@@ -8557,13 +8557,13 @@
         <v>0</v>
       </c>
       <c r="J90" t="n">
-        <v>15.4954</v>
+        <v>26.8388</v>
       </c>
       <c r="K90" t="n">
-        <v>12.9559</v>
+        <v>22.4403</v>
       </c>
       <c r="L90" t="n">
-        <v>2.53943</v>
+        <v>4.39842</v>
       </c>
     </row>
     <row r="91">
@@ -8595,13 +8595,13 @@
         <v>0</v>
       </c>
       <c r="J91" t="n">
-        <v>0.380341</v>
+        <v>0.64854</v>
       </c>
       <c r="K91" t="n">
-        <v>2.16243</v>
+        <v>3.74988</v>
       </c>
       <c r="L91" t="n">
-        <v>2.54277</v>
+        <v>4.39842</v>
       </c>
     </row>
     <row r="92">
@@ -8621,7 +8621,7 @@
         <v>1e-05</v>
       </c>
       <c r="F92" t="n">
-        <v>1e-05</v>
+        <v>40</v>
       </c>
       <c r="G92" t="n">
         <v>0</v>
@@ -8633,13 +8633,13 @@
         <v>0</v>
       </c>
       <c r="J92" t="n">
-        <v>22.5701</v>
+        <v>39.9665</v>
       </c>
       <c r="K92" t="n">
-        <v>5.97719</v>
+        <v>9.478770000000001</v>
       </c>
       <c r="L92" t="n">
-        <v>16.5929</v>
+        <v>30.4878</v>
       </c>
     </row>
     <row r="93">
@@ -8659,7 +8659,7 @@
         <v>0</v>
       </c>
       <c r="F93" t="n">
-        <v>1e-05</v>
+        <v>40</v>
       </c>
       <c r="G93" t="n">
         <v>0</v>
@@ -8671,13 +8671,13 @@
         <v>0</v>
       </c>
       <c r="J93" t="n">
-        <v>18.2666</v>
+        <v>31.23</v>
       </c>
       <c r="K93" t="n">
-        <v>2.13613</v>
+        <v>3.69947</v>
       </c>
       <c r="L93" t="n">
-        <v>20.4028</v>
+        <v>34.9295</v>
       </c>
     </row>
     <row r="94">
@@ -8697,7 +8697,7 @@
         <v>1e-05</v>
       </c>
       <c r="F94" t="n">
-        <v>1e-05</v>
+        <v>40</v>
       </c>
       <c r="G94" t="n">
         <v>0</v>
@@ -8709,13 +8709,13 @@
         <v>0</v>
       </c>
       <c r="J94" t="n">
-        <v>0.381516</v>
+        <v>0.645158</v>
       </c>
       <c r="K94" t="n">
-        <v>5.22268</v>
+        <v>11.6963</v>
       </c>
       <c r="L94" t="n">
-        <v>5.60419</v>
+        <v>12.3414</v>
       </c>
     </row>
     <row r="95">
@@ -8747,13 +8747,13 @@
         <v>0</v>
       </c>
       <c r="J95" t="n">
-        <v>15.5433</v>
+        <v>26.9219</v>
       </c>
       <c r="K95" t="n">
-        <v>13.0039</v>
+        <v>22.5234</v>
       </c>
       <c r="L95" t="n">
-        <v>2.53943</v>
+        <v>4.39842</v>
       </c>
     </row>
     <row r="96">
@@ -8785,13 +8785,13 @@
         <v>0</v>
       </c>
       <c r="J96" t="n">
-        <v>0.380341</v>
+        <v>0.64854</v>
       </c>
       <c r="K96" t="n">
-        <v>2.16243</v>
+        <v>3.74988</v>
       </c>
       <c r="L96" t="n">
-        <v>2.54277</v>
+        <v>4.39842</v>
       </c>
     </row>
     <row r="97">
@@ -8820,16 +8820,16 @@
         <v>1e-05</v>
       </c>
       <c r="I97" t="n">
-        <v>1e-05</v>
+        <v>40</v>
       </c>
       <c r="J97" t="n">
-        <v>22.51</v>
+        <v>39.8583</v>
       </c>
       <c r="K97" t="n">
-        <v>5.92933</v>
+        <v>9.400090000000001</v>
       </c>
       <c r="L97" t="n">
-        <v>16.5807</v>
+        <v>30.4582</v>
       </c>
     </row>
     <row r="98">
@@ -8858,16 +8858,16 @@
         <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>1e-05</v>
+        <v>40</v>
       </c>
       <c r="J98" t="n">
-        <v>18.2438</v>
+        <v>31.1866</v>
       </c>
       <c r="K98" t="n">
-        <v>2.1368</v>
+        <v>3.70065</v>
       </c>
       <c r="L98" t="n">
-        <v>20.3806</v>
+        <v>34.8873</v>
       </c>
     </row>
     <row r="99">
@@ -8896,16 +8896,16 @@
         <v>1e-05</v>
       </c>
       <c r="I99" t="n">
-        <v>1e-05</v>
+        <v>40</v>
       </c>
       <c r="J99" t="n">
-        <v>0.381575</v>
+        <v>0.64538</v>
       </c>
       <c r="K99" t="n">
-        <v>5.23415</v>
+        <v>11.7049</v>
       </c>
       <c r="L99" t="n">
-        <v>5.61572</v>
+        <v>12.3503</v>
       </c>
     </row>
     <row r="100">
@@ -8937,13 +8937,13 @@
         <v>0</v>
       </c>
       <c r="J100" t="n">
-        <v>15.4894</v>
+        <v>26.8284</v>
       </c>
       <c r="K100" t="n">
-        <v>12.9499</v>
+        <v>22.43</v>
       </c>
       <c r="L100" t="n">
-        <v>2.53944</v>
+        <v>4.39842</v>
       </c>
     </row>
     <row r="101">
@@ -8975,13 +8975,13 @@
         <v>0</v>
       </c>
       <c r="J101" t="n">
-        <v>0.380341</v>
+        <v>0.64854</v>
       </c>
       <c r="K101" t="n">
-        <v>2.16243</v>
+        <v>3.74988</v>
       </c>
       <c r="L101" t="n">
-        <v>2.54277</v>
+        <v>4.39842</v>
       </c>
     </row>
     <row r="102">
@@ -9001,7 +9001,7 @@
         <v>1e-05</v>
       </c>
       <c r="F102" t="n">
-        <v>1e-05</v>
+        <v>40</v>
       </c>
       <c r="G102" t="n">
         <v>0</v>
@@ -9013,13 +9013,13 @@
         <v>0</v>
       </c>
       <c r="J102" t="n">
-        <v>22.57007</v>
+        <v>39.96654</v>
       </c>
       <c r="K102" t="n">
-        <v>5.977194</v>
+        <v>9.478771</v>
       </c>
       <c r="L102" t="n">
-        <v>16.59288</v>
+        <v>30.48777</v>
       </c>
     </row>
     <row r="103">
@@ -9039,7 +9039,7 @@
         <v>0</v>
       </c>
       <c r="F103" t="n">
-        <v>1e-05</v>
+        <v>40</v>
       </c>
       <c r="G103" t="n">
         <v>0</v>
@@ -9051,13 +9051,13 @@
         <v>0</v>
       </c>
       <c r="J103" t="n">
-        <v>18.26663</v>
+        <v>31.23002</v>
       </c>
       <c r="K103" t="n">
-        <v>2.136128</v>
+        <v>3.699474</v>
       </c>
       <c r="L103" t="n">
-        <v>20.40276</v>
+        <v>34.92949</v>
       </c>
     </row>
     <row r="104">
@@ -9077,7 +9077,7 @@
         <v>1e-05</v>
       </c>
       <c r="F104" t="n">
-        <v>1e-05</v>
+        <v>40</v>
       </c>
       <c r="G104" t="n">
         <v>0</v>
@@ -9089,13 +9089,13 @@
         <v>0</v>
       </c>
       <c r="J104" t="n">
-        <v>0.3815158</v>
+        <v>0.6451582</v>
       </c>
       <c r="K104" t="n">
-        <v>5.222676</v>
+        <v>11.69627</v>
       </c>
       <c r="L104" t="n">
-        <v>5.604192</v>
+        <v>12.34142</v>
       </c>
     </row>
     <row r="105">
@@ -9127,13 +9127,13 @@
         <v>0</v>
       </c>
       <c r="J105" t="n">
-        <v>15.54335</v>
+        <v>26.92186</v>
       </c>
       <c r="K105" t="n">
-        <v>13.00392</v>
+        <v>22.52345</v>
       </c>
       <c r="L105" t="n">
-        <v>2.539427</v>
+        <v>4.398416</v>
       </c>
     </row>
     <row r="106">
@@ -9165,13 +9165,13 @@
         <v>0</v>
       </c>
       <c r="J106" t="n">
-        <v>0.3803415</v>
+        <v>0.6485403</v>
       </c>
       <c r="K106" t="n">
-        <v>2.162429</v>
+        <v>3.749876</v>
       </c>
       <c r="L106" t="n">
-        <v>2.54277</v>
+        <v>4.398416</v>
       </c>
     </row>
     <row r="107">
@@ -9200,16 +9200,16 @@
         <v>1e-05</v>
       </c>
       <c r="I107" t="n">
-        <v>1e-05</v>
+        <v>40</v>
       </c>
       <c r="J107" t="n">
-        <v>22.50339</v>
+        <v>39.84637</v>
       </c>
       <c r="K107" t="n">
-        <v>5.924074</v>
+        <v>9.391446999999999</v>
       </c>
       <c r="L107" t="n">
-        <v>16.57932</v>
+        <v>30.45492</v>
       </c>
     </row>
     <row r="108">
@@ -9238,16 +9238,16 @@
         <v>0</v>
       </c>
       <c r="I108" t="n">
-        <v>1e-05</v>
+        <v>40</v>
       </c>
       <c r="J108" t="n">
-        <v>18.24132</v>
+        <v>31.18186</v>
       </c>
       <c r="K108" t="n">
-        <v>2.136877</v>
+        <v>3.700774</v>
       </c>
       <c r="L108" t="n">
-        <v>20.37819</v>
+        <v>34.88263</v>
       </c>
     </row>
     <row r="109">
@@ -9276,16 +9276,16 @@
         <v>1e-05</v>
       </c>
       <c r="I109" t="n">
-        <v>1e-05</v>
+        <v>40</v>
       </c>
       <c r="J109" t="n">
-        <v>0.3815818</v>
+        <v>0.6454043</v>
       </c>
       <c r="K109" t="n">
-        <v>5.235403</v>
+        <v>11.70588</v>
       </c>
       <c r="L109" t="n">
-        <v>5.616985</v>
+        <v>12.35128</v>
       </c>
     </row>
     <row r="110">
@@ -9317,13 +9317,13 @@
         <v>0</v>
       </c>
       <c r="J110" t="n">
-        <v>15.48345</v>
+        <v>26.81812</v>
       </c>
       <c r="K110" t="n">
-        <v>12.94401</v>
+        <v>22.4197</v>
       </c>
       <c r="L110" t="n">
-        <v>2.539436</v>
+        <v>4.398416</v>
       </c>
     </row>
     <row r="111">
@@ -9355,13 +9355,13 @@
         <v>0</v>
       </c>
       <c r="J111" t="n">
-        <v>0.3803415</v>
+        <v>0.6485403</v>
       </c>
       <c r="K111" t="n">
-        <v>2.162429</v>
+        <v>3.749876</v>
       </c>
       <c r="L111" t="n">
-        <v>2.54277</v>
+        <v>4.398416</v>
       </c>
     </row>
   </sheetData>

--- a/T2F_MATLAB/TestesConstrutivoReais/Dados_SemFuse.xlsx
+++ b/T2F_MATLAB/TestesConstrutivoReais/Dados_SemFuse.xlsx
@@ -506,7 +506,7 @@
         <v>1e-05</v>
       </c>
       <c r="E2" t="n">
-        <v>40</v>
+        <v>1e-05</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -518,13 +518,13 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>40.2547</v>
+        <v>39.3749</v>
       </c>
       <c r="J2" t="n">
-        <v>9.5175</v>
+        <v>10.3973</v>
       </c>
       <c r="K2" t="n">
-        <v>30.7372</v>
+        <v>28.9775</v>
       </c>
     </row>
     <row r="3">
@@ -541,7 +541,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>40</v>
+        <v>1e-05</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -553,13 +553,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>31.4679</v>
+        <v>31.8909</v>
       </c>
       <c r="J3" t="n">
-        <v>3.70241</v>
+        <v>3.7028</v>
       </c>
       <c r="K3" t="n">
-        <v>35.1703</v>
+        <v>35.5937</v>
       </c>
     </row>
     <row r="4">
@@ -576,7 +576,7 @@
         <v>1e-05</v>
       </c>
       <c r="E4" t="n">
-        <v>40</v>
+        <v>1e-05</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -588,13 +588,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0.641101</v>
+        <v>0.64645</v>
       </c>
       <c r="J4" t="n">
-        <v>11.8317</v>
+        <v>9.153600000000001</v>
       </c>
       <c r="K4" t="n">
-        <v>12.4728</v>
+        <v>9.8001</v>
       </c>
     </row>
     <row r="5">
@@ -690,16 +690,16 @@
         <v>1e-05</v>
       </c>
       <c r="H7" t="n">
-        <v>40</v>
+        <v>1e-05</v>
       </c>
       <c r="I7" t="n">
-        <v>40.1325</v>
+        <v>39.2575</v>
       </c>
       <c r="J7" t="n">
-        <v>9.42883</v>
+        <v>10.3039</v>
       </c>
       <c r="K7" t="n">
-        <v>30.7037</v>
+        <v>28.9536</v>
       </c>
     </row>
     <row r="8">
@@ -725,16 +725,16 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>40</v>
+        <v>1e-05</v>
       </c>
       <c r="I8" t="n">
-        <v>31.4189</v>
+        <v>31.8463</v>
       </c>
       <c r="J8" t="n">
-        <v>3.70372</v>
+        <v>3.70412</v>
       </c>
       <c r="K8" t="n">
-        <v>35.1226</v>
+        <v>35.5504</v>
       </c>
     </row>
     <row r="9">
@@ -760,16 +760,16 @@
         <v>1e-05</v>
       </c>
       <c r="H9" t="n">
-        <v>40</v>
+        <v>1e-05</v>
       </c>
       <c r="I9" t="n">
-        <v>0.641353</v>
+        <v>0.64657</v>
       </c>
       <c r="J9" t="n">
-        <v>11.8413</v>
+        <v>9.1759</v>
       </c>
       <c r="K9" t="n">
-        <v>12.4826</v>
+        <v>9.8225</v>
       </c>
     </row>
     <row r="10">
@@ -940,7 +940,7 @@
         <v>1e-05</v>
       </c>
       <c r="F2" t="n">
-        <v>40</v>
+        <v>1e-05</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -952,13 +952,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>40.1844</v>
+        <v>39.3012</v>
       </c>
       <c r="K2" t="n">
-        <v>9.636150000000001</v>
+        <v>10.5193</v>
       </c>
       <c r="L2" t="n">
-        <v>30.5482</v>
+        <v>28.782</v>
       </c>
     </row>
     <row r="3">
@@ -978,7 +978,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>40</v>
+        <v>1e-05</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -990,13 +990,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>31.3211</v>
+        <v>31.721</v>
       </c>
       <c r="K3" t="n">
-        <v>3.69341</v>
+        <v>3.69378</v>
       </c>
       <c r="L3" t="n">
-        <v>35.0145</v>
+        <v>35.4147</v>
       </c>
     </row>
     <row r="4">
@@ -1016,7 +1016,7 @@
         <v>1e-05</v>
       </c>
       <c r="F4" t="n">
-        <v>40</v>
+        <v>1e-05</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -1028,13 +1028,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0.643864</v>
+        <v>0.64972</v>
       </c>
       <c r="K4" t="n">
-        <v>11.6754</v>
+        <v>9.0076</v>
       </c>
       <c r="L4" t="n">
-        <v>12.3193</v>
+        <v>9.657400000000001</v>
       </c>
     </row>
     <row r="5">
@@ -1139,16 +1139,16 @@
         <v>1e-05</v>
       </c>
       <c r="I7" t="n">
-        <v>40</v>
+        <v>1e-05</v>
       </c>
       <c r="J7" t="n">
-        <v>39.8462</v>
+        <v>38.9769</v>
       </c>
       <c r="K7" t="n">
-        <v>9.391360000000001</v>
+        <v>10.2607</v>
       </c>
       <c r="L7" t="n">
-        <v>30.4549</v>
+        <v>28.7162</v>
       </c>
     </row>
     <row r="8">
@@ -1215,16 +1215,16 @@
         <v>1e-05</v>
       </c>
       <c r="I9" t="n">
-        <v>40</v>
+        <v>1e-05</v>
       </c>
       <c r="J9" t="n">
-        <v>0.645405</v>
+        <v>0.65056</v>
       </c>
       <c r="K9" t="n">
-        <v>11.7059</v>
+        <v>9.0732</v>
       </c>
       <c r="L9" t="n">
-        <v>12.3513</v>
+        <v>9.723800000000001</v>
       </c>
     </row>
     <row r="10">
@@ -1320,7 +1320,7 @@
         <v>1e-05</v>
       </c>
       <c r="F12" t="n">
-        <v>40</v>
+        <v>1e-05</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -1332,13 +1332,13 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>40.1627</v>
+        <v>39.2805</v>
       </c>
       <c r="K12" t="n">
-        <v>9.620509999999999</v>
+        <v>10.5027</v>
       </c>
       <c r="L12" t="n">
-        <v>30.5422</v>
+        <v>28.7778</v>
       </c>
     </row>
     <row r="13">
@@ -1358,7 +1358,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>40</v>
+        <v>1e-05</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1370,13 +1370,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>31.312</v>
+        <v>31.7128</v>
       </c>
       <c r="K13" t="n">
-        <v>3.69401</v>
+        <v>3.69438</v>
       </c>
       <c r="L13" t="n">
-        <v>35.006</v>
+        <v>35.4072</v>
       </c>
     </row>
     <row r="14">
@@ -1396,7 +1396,7 @@
         <v>1e-05</v>
       </c>
       <c r="F14" t="n">
-        <v>40</v>
+        <v>1e-05</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1408,13 +1408,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0.643991</v>
+        <v>0.6497889999999999</v>
       </c>
       <c r="K14" t="n">
-        <v>11.6775</v>
+        <v>9.011979999999999</v>
       </c>
       <c r="L14" t="n">
-        <v>12.3215</v>
+        <v>9.661770000000001</v>
       </c>
     </row>
     <row r="15">
@@ -1519,16 +1519,16 @@
         <v>1e-05</v>
       </c>
       <c r="I17" t="n">
-        <v>40</v>
+        <v>1e-05</v>
       </c>
       <c r="J17" t="n">
-        <v>39.8462</v>
+        <v>38.9769</v>
       </c>
       <c r="K17" t="n">
-        <v>9.391360000000001</v>
+        <v>10.2607</v>
       </c>
       <c r="L17" t="n">
-        <v>30.4549</v>
+        <v>28.7162</v>
       </c>
     </row>
     <row r="18">
@@ -1595,16 +1595,16 @@
         <v>1e-05</v>
       </c>
       <c r="I19" t="n">
-        <v>40</v>
+        <v>1e-05</v>
       </c>
       <c r="J19" t="n">
-        <v>0.645405</v>
+        <v>0.650556</v>
       </c>
       <c r="K19" t="n">
-        <v>11.7059</v>
+        <v>9.07319</v>
       </c>
       <c r="L19" t="n">
-        <v>12.3513</v>
+        <v>9.723750000000001</v>
       </c>
     </row>
     <row r="20">
@@ -1700,7 +1700,7 @@
         <v>1e-05</v>
       </c>
       <c r="F22" t="n">
-        <v>40</v>
+        <v>1e-05</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -1712,13 +1712,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>40.1409</v>
+        <v>39.2596</v>
       </c>
       <c r="K22" t="n">
-        <v>9.60472</v>
+        <v>10.486</v>
       </c>
       <c r="L22" t="n">
-        <v>30.5362</v>
+        <v>28.7736</v>
       </c>
     </row>
     <row r="23">
@@ -1738,7 +1738,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>40</v>
+        <v>1e-05</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -1750,13 +1750,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>31.3029</v>
+        <v>31.7046</v>
       </c>
       <c r="K23" t="n">
-        <v>3.69462</v>
+        <v>3.695</v>
       </c>
       <c r="L23" t="n">
-        <v>34.9975</v>
+        <v>35.3996</v>
       </c>
     </row>
     <row r="24">
@@ -1776,7 +1776,7 @@
         <v>1e-05</v>
       </c>
       <c r="F24" t="n">
-        <v>40</v>
+        <v>1e-05</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -1788,13 +1788,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0.64412</v>
+        <v>0.649861</v>
       </c>
       <c r="K24" t="n">
-        <v>11.6796</v>
+        <v>9.016360000000001</v>
       </c>
       <c r="L24" t="n">
-        <v>12.3237</v>
+        <v>9.666219999999999</v>
       </c>
     </row>
     <row r="25">
@@ -1899,16 +1899,16 @@
         <v>1e-05</v>
       </c>
       <c r="I27" t="n">
-        <v>40</v>
+        <v>1e-05</v>
       </c>
       <c r="J27" t="n">
-        <v>39.8462</v>
+        <v>38.9769</v>
       </c>
       <c r="K27" t="n">
-        <v>9.391360000000001</v>
+        <v>10.2607</v>
       </c>
       <c r="L27" t="n">
-        <v>30.4549</v>
+        <v>28.7162</v>
       </c>
     </row>
     <row r="28">
@@ -1975,16 +1975,16 @@
         <v>1e-05</v>
       </c>
       <c r="I29" t="n">
-        <v>40</v>
+        <v>1e-05</v>
       </c>
       <c r="J29" t="n">
-        <v>0.645405</v>
+        <v>0.650556</v>
       </c>
       <c r="K29" t="n">
-        <v>11.7059</v>
+        <v>9.07319</v>
       </c>
       <c r="L29" t="n">
-        <v>12.3513</v>
+        <v>9.723750000000001</v>
       </c>
     </row>
     <row r="30">
@@ -2080,7 +2080,7 @@
         <v>1e-05</v>
       </c>
       <c r="F32" t="n">
-        <v>40</v>
+        <v>1e-05</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -2092,13 +2092,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>40.119</v>
+        <v>39.2387</v>
       </c>
       <c r="K32" t="n">
-        <v>9.588950000000001</v>
+        <v>10.4693</v>
       </c>
       <c r="L32" t="n">
-        <v>30.5301</v>
+        <v>28.7693</v>
       </c>
     </row>
     <row r="33">
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>40</v>
+        <v>1e-05</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -2130,13 +2130,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>31.2938</v>
+        <v>31.6963</v>
       </c>
       <c r="K33" t="n">
-        <v>3.69523</v>
+        <v>3.69561</v>
       </c>
       <c r="L33" t="n">
-        <v>34.989</v>
+        <v>35.3919</v>
       </c>
     </row>
     <row r="34">
@@ -2156,7 +2156,7 @@
         <v>1e-05</v>
       </c>
       <c r="F34" t="n">
-        <v>40</v>
+        <v>1e-05</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -2168,13 +2168,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0.64425</v>
+        <v>0.649932</v>
       </c>
       <c r="K34" t="n">
-        <v>11.6817</v>
+        <v>9.02073</v>
       </c>
       <c r="L34" t="n">
-        <v>12.326</v>
+        <v>9.67066</v>
       </c>
     </row>
     <row r="35">
@@ -2279,16 +2279,16 @@
         <v>1e-05</v>
       </c>
       <c r="I37" t="n">
-        <v>40</v>
+        <v>1e-05</v>
       </c>
       <c r="J37" t="n">
-        <v>39.8462</v>
+        <v>38.9769</v>
       </c>
       <c r="K37" t="n">
-        <v>9.391360000000001</v>
+        <v>10.2607</v>
       </c>
       <c r="L37" t="n">
-        <v>30.4549</v>
+        <v>28.7162</v>
       </c>
     </row>
     <row r="38">
@@ -2355,16 +2355,16 @@
         <v>1e-05</v>
       </c>
       <c r="I39" t="n">
-        <v>40</v>
+        <v>1e-05</v>
       </c>
       <c r="J39" t="n">
-        <v>0.645405</v>
+        <v>0.650556</v>
       </c>
       <c r="K39" t="n">
-        <v>11.7059</v>
+        <v>9.07319</v>
       </c>
       <c r="L39" t="n">
-        <v>12.3513</v>
+        <v>9.723750000000001</v>
       </c>
     </row>
     <row r="40">
@@ -2460,7 +2460,7 @@
         <v>1e-05</v>
       </c>
       <c r="F42" t="n">
-        <v>40</v>
+        <v>1e-05</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -2472,13 +2472,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>40.0972</v>
+        <v>39.2177</v>
       </c>
       <c r="K42" t="n">
-        <v>9.573180000000001</v>
+        <v>10.4527</v>
       </c>
       <c r="L42" t="n">
-        <v>30.5241</v>
+        <v>28.7651</v>
       </c>
     </row>
     <row r="43">
@@ -2498,7 +2498,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>40</v>
+        <v>1e-05</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -2510,13 +2510,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>31.2847</v>
+        <v>31.6881</v>
       </c>
       <c r="K43" t="n">
-        <v>3.69583</v>
+        <v>3.69622</v>
       </c>
       <c r="L43" t="n">
-        <v>34.9805</v>
+        <v>35.3843</v>
       </c>
     </row>
     <row r="44">
@@ -2536,7 +2536,7 @@
         <v>1e-05</v>
       </c>
       <c r="F44" t="n">
-        <v>40</v>
+        <v>1e-05</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -2548,13 +2548,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0.644379</v>
+        <v>0.6500050000000001</v>
       </c>
       <c r="K44" t="n">
-        <v>11.6838</v>
+        <v>9.025090000000001</v>
       </c>
       <c r="L44" t="n">
-        <v>12.3282</v>
+        <v>9.6751</v>
       </c>
     </row>
     <row r="45">
@@ -2659,16 +2659,16 @@
         <v>1e-05</v>
       </c>
       <c r="I47" t="n">
-        <v>40</v>
+        <v>1e-05</v>
       </c>
       <c r="J47" t="n">
-        <v>39.8462</v>
+        <v>38.9769</v>
       </c>
       <c r="K47" t="n">
-        <v>9.391360000000001</v>
+        <v>10.2607</v>
       </c>
       <c r="L47" t="n">
-        <v>30.4549</v>
+        <v>28.7162</v>
       </c>
     </row>
     <row r="48">
@@ -2735,16 +2735,16 @@
         <v>1e-05</v>
       </c>
       <c r="I49" t="n">
-        <v>40</v>
+        <v>1e-05</v>
       </c>
       <c r="J49" t="n">
-        <v>0.645405</v>
+        <v>0.650556</v>
       </c>
       <c r="K49" t="n">
-        <v>11.7059</v>
+        <v>9.07319</v>
       </c>
       <c r="L49" t="n">
-        <v>12.3513</v>
+        <v>9.723750000000001</v>
       </c>
     </row>
     <row r="50">
@@ -2840,7 +2840,7 @@
         <v>1e-05</v>
       </c>
       <c r="F52" t="n">
-        <v>40</v>
+        <v>1e-05</v>
       </c>
       <c r="G52" t="n">
         <v>0</v>
@@ -2852,13 +2852,13 @@
         <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>40.0754</v>
+        <v>39.1968</v>
       </c>
       <c r="K52" t="n">
-        <v>9.55742</v>
+        <v>10.436</v>
       </c>
       <c r="L52" t="n">
-        <v>30.518</v>
+        <v>28.7609</v>
       </c>
     </row>
     <row r="53">
@@ -2878,7 +2878,7 @@
         <v>0</v>
       </c>
       <c r="F53" t="n">
-        <v>40</v>
+        <v>1e-05</v>
       </c>
       <c r="G53" t="n">
         <v>0</v>
@@ -2890,13 +2890,13 @@
         <v>0</v>
       </c>
       <c r="J53" t="n">
-        <v>31.2755</v>
+        <v>31.6799</v>
       </c>
       <c r="K53" t="n">
-        <v>3.69644</v>
+        <v>3.69683</v>
       </c>
       <c r="L53" t="n">
-        <v>34.972</v>
+        <v>35.3767</v>
       </c>
     </row>
     <row r="54">
@@ -2916,7 +2916,7 @@
         <v>1e-05</v>
       </c>
       <c r="F54" t="n">
-        <v>40</v>
+        <v>1e-05</v>
       </c>
       <c r="G54" t="n">
         <v>0</v>
@@ -2928,13 +2928,13 @@
         <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>0.644508</v>
+        <v>0.650077</v>
       </c>
       <c r="K54" t="n">
-        <v>11.6859</v>
+        <v>9.029450000000001</v>
       </c>
       <c r="L54" t="n">
-        <v>12.3304</v>
+        <v>9.67953</v>
       </c>
     </row>
     <row r="55">
@@ -3039,16 +3039,16 @@
         <v>1e-05</v>
       </c>
       <c r="I57" t="n">
-        <v>40</v>
+        <v>1e-05</v>
       </c>
       <c r="J57" t="n">
-        <v>39.8462</v>
+        <v>38.9769</v>
       </c>
       <c r="K57" t="n">
-        <v>9.391360000000001</v>
+        <v>10.2607</v>
       </c>
       <c r="L57" t="n">
-        <v>30.4549</v>
+        <v>28.7162</v>
       </c>
     </row>
     <row r="58">
@@ -3115,16 +3115,16 @@
         <v>1e-05</v>
       </c>
       <c r="I59" t="n">
-        <v>40</v>
+        <v>1e-05</v>
       </c>
       <c r="J59" t="n">
-        <v>0.645405</v>
+        <v>0.650556</v>
       </c>
       <c r="K59" t="n">
-        <v>11.7059</v>
+        <v>9.07319</v>
       </c>
       <c r="L59" t="n">
-        <v>12.3513</v>
+        <v>9.723750000000001</v>
       </c>
     </row>
     <row r="60">
@@ -3220,7 +3220,7 @@
         <v>1e-05</v>
       </c>
       <c r="F62" t="n">
-        <v>40</v>
+        <v>1e-05</v>
       </c>
       <c r="G62" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="J62" t="n">
-        <v>40.0536</v>
+        <v>39.176</v>
       </c>
       <c r="K62" t="n">
-        <v>9.54167</v>
+        <v>10.4193</v>
       </c>
       <c r="L62" t="n">
-        <v>30.5119</v>
+        <v>28.7566</v>
       </c>
     </row>
     <row r="63">
@@ -3258,7 +3258,7 @@
         <v>0</v>
       </c>
       <c r="F63" t="n">
-        <v>40</v>
+        <v>1e-05</v>
       </c>
       <c r="G63" t="n">
         <v>0</v>
@@ -3270,13 +3270,13 @@
         <v>0</v>
       </c>
       <c r="J63" t="n">
-        <v>31.2664</v>
+        <v>31.6716</v>
       </c>
       <c r="K63" t="n">
-        <v>3.69705</v>
+        <v>3.69744</v>
       </c>
       <c r="L63" t="n">
-        <v>34.9635</v>
+        <v>35.3691</v>
       </c>
     </row>
     <row r="64">
@@ -3296,7 +3296,7 @@
         <v>1e-05</v>
       </c>
       <c r="F64" t="n">
-        <v>40</v>
+        <v>1e-05</v>
       </c>
       <c r="G64" t="n">
         <v>0</v>
@@ -3308,13 +3308,13 @@
         <v>0</v>
       </c>
       <c r="J64" t="n">
-        <v>0.644638</v>
+        <v>0.650149</v>
       </c>
       <c r="K64" t="n">
-        <v>11.688</v>
+        <v>9.033799999999999</v>
       </c>
       <c r="L64" t="n">
-        <v>12.3326</v>
+        <v>9.683949999999999</v>
       </c>
     </row>
     <row r="65">
@@ -3419,16 +3419,16 @@
         <v>1e-05</v>
       </c>
       <c r="I67" t="n">
-        <v>40</v>
+        <v>1e-05</v>
       </c>
       <c r="J67" t="n">
-        <v>39.8462</v>
+        <v>38.9769</v>
       </c>
       <c r="K67" t="n">
-        <v>9.391360000000001</v>
+        <v>10.2607</v>
       </c>
       <c r="L67" t="n">
-        <v>30.4549</v>
+        <v>28.7162</v>
       </c>
     </row>
     <row r="68">
@@ -3495,16 +3495,16 @@
         <v>1e-05</v>
       </c>
       <c r="I69" t="n">
-        <v>40</v>
+        <v>1e-05</v>
       </c>
       <c r="J69" t="n">
-        <v>0.645405</v>
+        <v>0.650556</v>
       </c>
       <c r="K69" t="n">
-        <v>11.7059</v>
+        <v>9.07319</v>
       </c>
       <c r="L69" t="n">
-        <v>12.3513</v>
+        <v>9.723750000000001</v>
       </c>
     </row>
     <row r="70">
@@ -3600,7 +3600,7 @@
         <v>1e-05</v>
       </c>
       <c r="F72" t="n">
-        <v>40</v>
+        <v>1e-05</v>
       </c>
       <c r="G72" t="n">
         <v>0</v>
@@ -3612,13 +3612,13 @@
         <v>0</v>
       </c>
       <c r="J72" t="n">
-        <v>40.0318</v>
+        <v>39.1551</v>
       </c>
       <c r="K72" t="n">
-        <v>9.525930000000001</v>
+        <v>10.4027</v>
       </c>
       <c r="L72" t="n">
-        <v>30.5059</v>
+        <v>28.7524</v>
       </c>
     </row>
     <row r="73">
@@ -3638,7 +3638,7 @@
         <v>0</v>
       </c>
       <c r="F73" t="n">
-        <v>40</v>
+        <v>1e-05</v>
       </c>
       <c r="G73" t="n">
         <v>0</v>
@@ -3650,13 +3650,13 @@
         <v>0</v>
       </c>
       <c r="J73" t="n">
-        <v>31.2573</v>
+        <v>31.6634</v>
       </c>
       <c r="K73" t="n">
-        <v>3.69766</v>
+        <v>3.69805</v>
       </c>
       <c r="L73" t="n">
-        <v>34.955</v>
+        <v>35.3615</v>
       </c>
     </row>
     <row r="74">
@@ -3676,7 +3676,7 @@
         <v>1e-05</v>
       </c>
       <c r="F74" t="n">
-        <v>40</v>
+        <v>1e-05</v>
       </c>
       <c r="G74" t="n">
         <v>0</v>
@@ -3688,13 +3688,13 @@
         <v>0</v>
       </c>
       <c r="J74" t="n">
-        <v>0.644768</v>
+        <v>0.650222</v>
       </c>
       <c r="K74" t="n">
-        <v>11.6901</v>
+        <v>9.03814</v>
       </c>
       <c r="L74" t="n">
-        <v>12.3348</v>
+        <v>9.688359999999999</v>
       </c>
     </row>
     <row r="75">
@@ -3799,16 +3799,16 @@
         <v>1e-05</v>
       </c>
       <c r="I77" t="n">
-        <v>40</v>
+        <v>1e-05</v>
       </c>
       <c r="J77" t="n">
-        <v>39.8462</v>
+        <v>38.9769</v>
       </c>
       <c r="K77" t="n">
-        <v>9.391360000000001</v>
+        <v>10.2607</v>
       </c>
       <c r="L77" t="n">
-        <v>30.4549</v>
+        <v>28.7162</v>
       </c>
     </row>
     <row r="78">
@@ -3875,16 +3875,16 @@
         <v>1e-05</v>
       </c>
       <c r="I79" t="n">
-        <v>40</v>
+        <v>1e-05</v>
       </c>
       <c r="J79" t="n">
-        <v>0.645405</v>
+        <v>0.650556</v>
       </c>
       <c r="K79" t="n">
-        <v>11.7059</v>
+        <v>9.07319</v>
       </c>
       <c r="L79" t="n">
-        <v>12.3513</v>
+        <v>9.723750000000001</v>
       </c>
     </row>
     <row r="80">
@@ -3980,7 +3980,7 @@
         <v>1e-05</v>
       </c>
       <c r="F82" t="n">
-        <v>40</v>
+        <v>1e-05</v>
       </c>
       <c r="G82" t="n">
         <v>0</v>
@@ -3992,13 +3992,13 @@
         <v>0</v>
       </c>
       <c r="J82" t="n">
-        <v>40.0101</v>
+        <v>39.1342</v>
       </c>
       <c r="K82" t="n">
-        <v>9.510199999999999</v>
+        <v>10.386</v>
       </c>
       <c r="L82" t="n">
-        <v>30.4999</v>
+        <v>28.7482</v>
       </c>
     </row>
     <row r="83">
@@ -4018,7 +4018,7 @@
         <v>0</v>
       </c>
       <c r="F83" t="n">
-        <v>40</v>
+        <v>1e-05</v>
       </c>
       <c r="G83" t="n">
         <v>0</v>
@@ -4030,13 +4030,13 @@
         <v>0</v>
       </c>
       <c r="J83" t="n">
-        <v>31.2482</v>
+        <v>31.6552</v>
       </c>
       <c r="K83" t="n">
-        <v>3.69826</v>
+        <v>3.69866</v>
       </c>
       <c r="L83" t="n">
-        <v>34.9465</v>
+        <v>35.3538</v>
       </c>
     </row>
     <row r="84">
@@ -4056,7 +4056,7 @@
         <v>1e-05</v>
       </c>
       <c r="F84" t="n">
-        <v>40</v>
+        <v>1e-05</v>
       </c>
       <c r="G84" t="n">
         <v>0</v>
@@ -4068,13 +4068,13 @@
         <v>0</v>
       </c>
       <c r="J84" t="n">
-        <v>0.644898</v>
+        <v>0.650295</v>
       </c>
       <c r="K84" t="n">
-        <v>11.6921</v>
+        <v>9.042479999999999</v>
       </c>
       <c r="L84" t="n">
-        <v>12.337</v>
+        <v>9.692769999999999</v>
       </c>
     </row>
     <row r="85">
@@ -4179,16 +4179,16 @@
         <v>1e-05</v>
       </c>
       <c r="I87" t="n">
-        <v>40</v>
+        <v>1e-05</v>
       </c>
       <c r="J87" t="n">
-        <v>39.8462</v>
+        <v>38.9769</v>
       </c>
       <c r="K87" t="n">
-        <v>9.391360000000001</v>
+        <v>10.2607</v>
       </c>
       <c r="L87" t="n">
-        <v>30.4549</v>
+        <v>28.7162</v>
       </c>
     </row>
     <row r="88">
@@ -4255,16 +4255,16 @@
         <v>1e-05</v>
       </c>
       <c r="I89" t="n">
-        <v>40</v>
+        <v>1e-05</v>
       </c>
       <c r="J89" t="n">
-        <v>0.645405</v>
+        <v>0.650556</v>
       </c>
       <c r="K89" t="n">
-        <v>11.7059</v>
+        <v>9.07319</v>
       </c>
       <c r="L89" t="n">
-        <v>12.3513</v>
+        <v>9.723750000000001</v>
       </c>
     </row>
     <row r="90">
@@ -4360,7 +4360,7 @@
         <v>1e-05</v>
       </c>
       <c r="F92" t="n">
-        <v>40</v>
+        <v>1e-05</v>
       </c>
       <c r="G92" t="n">
         <v>0</v>
@@ -4372,13 +4372,13 @@
         <v>0</v>
       </c>
       <c r="J92" t="n">
-        <v>39.9883</v>
+        <v>39.1134</v>
       </c>
       <c r="K92" t="n">
-        <v>9.494479999999999</v>
+        <v>10.3694</v>
       </c>
       <c r="L92" t="n">
-        <v>30.4938</v>
+        <v>28.7439</v>
       </c>
     </row>
     <row r="93">
@@ -4398,7 +4398,7 @@
         <v>0</v>
       </c>
       <c r="F93" t="n">
-        <v>40</v>
+        <v>1e-05</v>
       </c>
       <c r="G93" t="n">
         <v>0</v>
@@ -4410,13 +4410,13 @@
         <v>0</v>
       </c>
       <c r="J93" t="n">
-        <v>31.2391</v>
+        <v>31.647</v>
       </c>
       <c r="K93" t="n">
-        <v>3.69887</v>
+        <v>3.69927</v>
       </c>
       <c r="L93" t="n">
-        <v>34.938</v>
+        <v>35.3462</v>
       </c>
     </row>
     <row r="94">
@@ -4436,7 +4436,7 @@
         <v>1e-05</v>
       </c>
       <c r="F94" t="n">
-        <v>40</v>
+        <v>1e-05</v>
       </c>
       <c r="G94" t="n">
         <v>0</v>
@@ -4448,13 +4448,13 @@
         <v>0</v>
       </c>
       <c r="J94" t="n">
-        <v>0.645028</v>
+        <v>0.6503679999999999</v>
       </c>
       <c r="K94" t="n">
-        <v>11.6942</v>
+        <v>9.046810000000001</v>
       </c>
       <c r="L94" t="n">
-        <v>12.3392</v>
+        <v>9.69717</v>
       </c>
     </row>
     <row r="95">
@@ -4559,16 +4559,16 @@
         <v>1e-05</v>
       </c>
       <c r="I97" t="n">
-        <v>40</v>
+        <v>1e-05</v>
       </c>
       <c r="J97" t="n">
-        <v>39.8462</v>
+        <v>38.9769</v>
       </c>
       <c r="K97" t="n">
-        <v>9.391360000000001</v>
+        <v>10.2607</v>
       </c>
       <c r="L97" t="n">
-        <v>30.4549</v>
+        <v>28.7162</v>
       </c>
     </row>
     <row r="98">
@@ -4635,16 +4635,16 @@
         <v>1e-05</v>
       </c>
       <c r="I99" t="n">
-        <v>40</v>
+        <v>1e-05</v>
       </c>
       <c r="J99" t="n">
-        <v>0.645405</v>
+        <v>0.650556</v>
       </c>
       <c r="K99" t="n">
-        <v>11.7059</v>
+        <v>9.07319</v>
       </c>
       <c r="L99" t="n">
-        <v>12.3513</v>
+        <v>9.723750000000001</v>
       </c>
     </row>
     <row r="100">
@@ -4740,7 +4740,7 @@
         <v>1e-05</v>
       </c>
       <c r="F102" t="n">
-        <v>40</v>
+        <v>1e-05</v>
       </c>
       <c r="G102" t="n">
         <v>0</v>
@@ -4752,13 +4752,13 @@
         <v>0</v>
       </c>
       <c r="J102" t="n">
-        <v>39.96676</v>
+        <v>39.09272</v>
       </c>
       <c r="K102" t="n">
-        <v>9.478928</v>
+        <v>10.35297</v>
       </c>
       <c r="L102" t="n">
-        <v>30.48783</v>
+        <v>28.73975</v>
       </c>
     </row>
     <row r="103">
@@ -4778,7 +4778,7 @@
         <v>0</v>
       </c>
       <c r="F103" t="n">
-        <v>40</v>
+        <v>1e-05</v>
       </c>
       <c r="G103" t="n">
         <v>0</v>
@@ -4790,13 +4790,13 @@
         <v>0</v>
       </c>
       <c r="J103" t="n">
-        <v>31.23011</v>
+        <v>31.63881</v>
       </c>
       <c r="K103" t="n">
-        <v>3.699468</v>
+        <v>3.699876</v>
       </c>
       <c r="L103" t="n">
-        <v>34.92957</v>
+        <v>35.33869</v>
       </c>
     </row>
     <row r="104">
@@ -4816,7 +4816,7 @@
         <v>1e-05</v>
       </c>
       <c r="F104" t="n">
-        <v>40</v>
+        <v>1e-05</v>
       </c>
       <c r="G104" t="n">
         <v>0</v>
@@ -4828,13 +4828,13 @@
         <v>0</v>
       </c>
       <c r="J104" t="n">
-        <v>0.6451569</v>
+        <v>0.6504411</v>
       </c>
       <c r="K104" t="n">
-        <v>11.69625</v>
+        <v>9.051085</v>
       </c>
       <c r="L104" t="n">
-        <v>12.3414</v>
+        <v>9.701525999999999</v>
       </c>
     </row>
     <row r="105">
@@ -4939,16 +4939,16 @@
         <v>1e-05</v>
       </c>
       <c r="I107" t="n">
-        <v>40</v>
+        <v>1e-05</v>
       </c>
       <c r="J107" t="n">
-        <v>39.84625</v>
+        <v>38.9769</v>
       </c>
       <c r="K107" t="n">
-        <v>9.391360000000001</v>
+        <v>10.26071</v>
       </c>
       <c r="L107" t="n">
-        <v>30.45489</v>
+        <v>28.7162</v>
       </c>
     </row>
     <row r="108">
@@ -5015,16 +5015,16 @@
         <v>1e-05</v>
       </c>
       <c r="I109" t="n">
-        <v>40</v>
+        <v>1e-05</v>
       </c>
       <c r="J109" t="n">
-        <v>0.6454045</v>
+        <v>0.6505563</v>
       </c>
       <c r="K109" t="n">
-        <v>11.70589</v>
+        <v>9.073194000000001</v>
       </c>
       <c r="L109" t="n">
-        <v>12.35129</v>
+        <v>9.723750000000001</v>
       </c>
     </row>
     <row r="110">
